--- a/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9626310369308592</v>
+        <v>0.9626310369308627</v>
       </c>
       <c r="D2">
-        <v>0.9886668653317213</v>
+        <v>0.9886668653317245</v>
       </c>
       <c r="E2">
-        <v>0.9717025505326101</v>
+        <v>0.9717025505326135</v>
       </c>
       <c r="F2">
-        <v>0.9373878623774127</v>
+        <v>0.9373878623774162</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.030769576117298</v>
+        <v>1.0307695761173</v>
       </c>
       <c r="J2">
-        <v>0.9859899374366492</v>
+        <v>0.9859899374366525</v>
       </c>
       <c r="K2">
-        <v>1.00028637980606</v>
+        <v>1.000286379806063</v>
       </c>
       <c r="L2">
-        <v>0.9835707165988693</v>
+        <v>0.9835707165988725</v>
       </c>
       <c r="M2">
-        <v>0.9497943589845799</v>
+        <v>0.9497943589845836</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9741197046967054</v>
+        <v>0.9741197046967075</v>
       </c>
       <c r="D3">
-        <v>0.9975400573709011</v>
+        <v>0.9975400573709028</v>
       </c>
       <c r="E3">
-        <v>0.9816447563085319</v>
+        <v>0.9816447563085333</v>
       </c>
       <c r="F3">
-        <v>0.9521367267359822</v>
+        <v>0.952136726735985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034760932073159</v>
+        <v>1.03476093207316</v>
       </c>
       <c r="J3">
-        <v>0.9953416490766156</v>
+        <v>0.9953416490766179</v>
       </c>
       <c r="K3">
-        <v>1.008204510688724</v>
+        <v>1.008204510688726</v>
       </c>
       <c r="L3">
-        <v>0.9925180111125878</v>
+        <v>0.9925180111125894</v>
       </c>
       <c r="M3">
-        <v>0.9634210127105038</v>
+        <v>0.9634210127105063</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9811833483245908</v>
+        <v>0.9811833483245922</v>
       </c>
       <c r="D4">
-        <v>1.002998958544201</v>
+        <v>1.002998958544203</v>
       </c>
       <c r="E4">
-        <v>0.9877593571912343</v>
+        <v>0.9877593571912355</v>
       </c>
       <c r="F4">
-        <v>0.9611880062170053</v>
+        <v>0.9611880062170074</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037195021052741</v>
+        <v>1.037195021052742</v>
       </c>
       <c r="J4">
-        <v>1.001080948628347</v>
+        <v>1.001080948628349</v>
       </c>
       <c r="K4">
-        <v>1.01306132303485</v>
+        <v>1.013061323034851</v>
       </c>
       <c r="L4">
-        <v>0.9980077960741711</v>
+        <v>0.9980077960741724</v>
       </c>
       <c r="M4">
-        <v>0.9717785839467528</v>
+        <v>0.9717785839467548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9840725915156856</v>
+        <v>0.9840725915156886</v>
       </c>
       <c r="D5">
-        <v>1.005232356364963</v>
+        <v>1.005232356364965</v>
       </c>
       <c r="E5">
-        <v>0.9902606757668951</v>
+        <v>0.990260675766898</v>
       </c>
       <c r="F5">
-        <v>0.964887236458749</v>
+        <v>0.9648872364587524</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03818575241667</v>
+        <v>1.038185752416671</v>
       </c>
       <c r="J5">
-        <v>1.003425946718123</v>
+        <v>1.003425946718126</v>
       </c>
       <c r="K5">
-        <v>1.015045012812038</v>
+        <v>1.01504501281204</v>
       </c>
       <c r="L5">
-        <v>1.000250493367595</v>
+        <v>1.000250493367597</v>
       </c>
       <c r="M5">
-        <v>0.9751929860047728</v>
+        <v>0.9751929860047761</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9845532168572377</v>
+        <v>0.9845532168572372</v>
       </c>
       <c r="D6">
-        <v>1.005603906852584</v>
+        <v>1.005603906852583</v>
       </c>
       <c r="E6">
-        <v>0.9906767809865954</v>
+        <v>0.990676780986595</v>
       </c>
       <c r="F6">
-        <v>0.9655024521337245</v>
+        <v>0.965502452133724</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,13 +594,13 @@
         <v>1.00381588585945</v>
       </c>
       <c r="K6">
-        <v>1.015374825721242</v>
+        <v>1.015374825721241</v>
       </c>
       <c r="L6">
-        <v>1.000623399680374</v>
+        <v>1.000623399680373</v>
       </c>
       <c r="M6">
-        <v>0.9757607521484258</v>
+        <v>0.9757607521484254</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9812222600595656</v>
+        <v>0.9812222600595623</v>
       </c>
       <c r="D7">
-        <v>1.003029035653499</v>
+        <v>1.003029035653496</v>
       </c>
       <c r="E7">
-        <v>0.9877930435948024</v>
+        <v>0.9877930435947992</v>
       </c>
       <c r="F7">
-        <v>0.9612378374439015</v>
+        <v>0.9612378374438982</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03720838355773</v>
+        <v>1.037208383557729</v>
       </c>
       <c r="J7">
-        <v>1.001112540757652</v>
+        <v>1.001112540757649</v>
       </c>
       <c r="K7">
-        <v>1.013088050615052</v>
+        <v>1.013088050615049</v>
       </c>
       <c r="L7">
-        <v>0.9980380114385742</v>
+        <v>0.998038011438571</v>
       </c>
       <c r="M7">
-        <v>0.9718245836818195</v>
+        <v>0.9718245836818162</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9665958218229636</v>
+        <v>0.9665958218229659</v>
       </c>
       <c r="D8">
-        <v>0.9917281491470212</v>
+        <v>0.9917281491470233</v>
       </c>
       <c r="E8">
-        <v>0.975133154110868</v>
+        <v>0.97513315411087</v>
       </c>
       <c r="F8">
-        <v>0.942482067176491</v>
+        <v>0.9424820671764937</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032151212267571</v>
+        <v>1.032151212267572</v>
       </c>
       <c r="J8">
-        <v>0.989219467582792</v>
+        <v>0.9892194675827941</v>
       </c>
       <c r="K8">
-        <v>1.003021346131679</v>
+        <v>1.003021346131681</v>
       </c>
       <c r="L8">
-        <v>0.9866608417472876</v>
+        <v>0.9866608417472894</v>
       </c>
       <c r="M8">
-        <v>0.9545019562034169</v>
+        <v>0.9545019562034195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9375207092744419</v>
+        <v>0.9375207092744405</v>
       </c>
       <c r="D9">
-        <v>0.9693075607549898</v>
+        <v>0.9693075607549881</v>
       </c>
       <c r="E9">
-        <v>0.9499922893967362</v>
+        <v>0.9499922893967346</v>
       </c>
       <c r="F9">
-        <v>0.9049895117027649</v>
+        <v>0.9049895117027632</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021933945508186</v>
+        <v>1.021933945508185</v>
       </c>
       <c r="J9">
-        <v>0.965490555173467</v>
+        <v>0.9654905551734657</v>
       </c>
       <c r="K9">
-        <v>0.982919036116091</v>
+        <v>0.9829190361160897</v>
       </c>
       <c r="L9">
-        <v>0.963952394368968</v>
+        <v>0.9639523943689664</v>
       </c>
       <c r="M9">
-        <v>0.919838312084708</v>
+        <v>0.9198383120847062</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9150576992282725</v>
+        <v>0.915057699228272</v>
       </c>
       <c r="D10">
-        <v>0.9520442931450224</v>
+        <v>0.9520442931450218</v>
       </c>
       <c r="E10">
-        <v>0.9306048912318564</v>
+        <v>0.9306048912318563</v>
       </c>
       <c r="F10">
-        <v>0.8757457548717932</v>
+        <v>0.8757457548717927</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.013934927751297</v>
       </c>
       <c r="J10">
-        <v>0.9470997962636374</v>
+        <v>0.9470997962636372</v>
       </c>
       <c r="K10">
-        <v>0.9673369685553551</v>
+        <v>0.9673369685553547</v>
       </c>
       <c r="L10">
-        <v>0.9463513184561065</v>
+        <v>0.9463513184561062</v>
       </c>
       <c r="M10">
-        <v>0.8927903691995348</v>
+        <v>0.8927903691995343</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.904314053425991</v>
+        <v>0.9043140534259886</v>
       </c>
       <c r="D11">
-        <v>0.9438102772121674</v>
+        <v>0.9438102772121651</v>
       </c>
       <c r="E11">
-        <v>0.9213468645887903</v>
+        <v>0.9213468645887883</v>
       </c>
       <c r="F11">
-        <v>0.861645833607909</v>
+        <v>0.8616458336079057</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010086775679746</v>
+        <v>1.010086775679745</v>
       </c>
       <c r="J11">
-        <v>0.938290566387191</v>
+        <v>0.9382905663871886</v>
       </c>
       <c r="K11">
-        <v>0.9598757867404154</v>
+        <v>0.9598757867404132</v>
       </c>
       <c r="L11">
-        <v>0.9379218759397218</v>
+        <v>0.9379218759397197</v>
       </c>
       <c r="M11">
-        <v>0.8797518762683875</v>
+        <v>0.8797518762683842</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9001349369169596</v>
+        <v>0.9001349369169589</v>
       </c>
       <c r="D12">
-        <v>0.940611772245459</v>
+        <v>0.9406117722454587</v>
       </c>
       <c r="E12">
-        <v>0.9177485320943363</v>
+        <v>0.9177485320943355</v>
       </c>
       <c r="F12">
-        <v>0.8561381416992523</v>
+        <v>0.8561381416992522</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.008586859281919</v>
       </c>
       <c r="J12">
-        <v>0.9348619635728417</v>
+        <v>0.9348619635728413</v>
       </c>
       <c r="K12">
-        <v>0.9569726252708672</v>
+        <v>0.9569726252708666</v>
       </c>
       <c r="L12">
-        <v>0.9346415554967482</v>
+        <v>0.9346415554967475</v>
       </c>
       <c r="M12">
-        <v>0.8746598972223139</v>
+        <v>0.8746598972223135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -854,16 +854,16 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008912046242702</v>
+        <v>1.008912046242701</v>
       </c>
       <c r="J13">
-        <v>0.9356050842515505</v>
+        <v>0.9356050842515504</v>
       </c>
       <c r="K13">
-        <v>0.9576018190672825</v>
+        <v>0.9576018190672824</v>
       </c>
       <c r="L13">
-        <v>0.9353525113948766</v>
+        <v>0.9353525113948767</v>
       </c>
       <c r="M13">
         <v>0.8757644185486632</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9039727046874908</v>
+        <v>0.9039727046874925</v>
       </c>
       <c r="D14">
-        <v>0.9435489293815931</v>
+        <v>0.9435489293815943</v>
       </c>
       <c r="E14">
-        <v>0.921052891037881</v>
+        <v>0.9210528910378827</v>
       </c>
       <c r="F14">
-        <v>0.8611964729078219</v>
+        <v>0.8611964729078233</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.00996432205915</v>
+        <v>1.009964322059151</v>
       </c>
       <c r="J14">
-        <v>0.9380105581811979</v>
+        <v>0.9380105581811995</v>
       </c>
       <c r="K14">
-        <v>0.9596386723937698</v>
+        <v>0.9596386723937712</v>
       </c>
       <c r="L14">
-        <v>0.9376539666309047</v>
+        <v>0.9376539666309063</v>
       </c>
       <c r="M14">
-        <v>0.8793364056960195</v>
+        <v>0.879336405696021</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9057529973430571</v>
+        <v>0.9057529973430554</v>
       </c>
       <c r="D15">
-        <v>0.9449121634526536</v>
+        <v>0.9449121634526521</v>
       </c>
       <c r="E15">
-        <v>0.9225862212197896</v>
+        <v>0.9225862212197875</v>
       </c>
       <c r="F15">
-        <v>0.8635391315464301</v>
+        <v>0.8635391315464276</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010602854577959</v>
+        <v>1.010602854577958</v>
       </c>
       <c r="J15">
-        <v>0.9394708535209874</v>
+        <v>0.9394708535209851</v>
       </c>
       <c r="K15">
-        <v>0.9608753017309138</v>
+        <v>0.9608753017309124</v>
       </c>
       <c r="L15">
-        <v>0.9390511843418023</v>
+        <v>0.9390511843418003</v>
       </c>
       <c r="M15">
-        <v>0.8815024332814811</v>
+        <v>0.8815024332814786</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9157465301262258</v>
+        <v>0.9157465301262281</v>
       </c>
       <c r="D16">
-        <v>0.9525727523430371</v>
+        <v>0.9525727523430393</v>
       </c>
       <c r="E16">
-        <v>0.9311988196248185</v>
+        <v>0.9311988196248205</v>
       </c>
       <c r="F16">
-        <v>0.8766470444721205</v>
+        <v>0.8766470444721232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.014181225537159</v>
+        <v>1.01418122553716</v>
       </c>
       <c r="J16">
-        <v>0.9476643381514307</v>
+        <v>0.947664338151433</v>
       </c>
       <c r="K16">
-        <v>0.9678152024677559</v>
+        <v>0.9678152024677579</v>
       </c>
       <c r="L16">
-        <v>0.9468915698607634</v>
+        <v>0.9468915698607651</v>
       </c>
       <c r="M16">
-        <v>0.8936239158667587</v>
+        <v>0.8936239158667613</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -994,31 +994,31 @@
         <v>0.9217214422396119</v>
       </c>
       <c r="D17">
-        <v>0.9571591705515647</v>
+        <v>0.9571591705515645</v>
       </c>
       <c r="E17">
-        <v>0.9363522062296105</v>
+        <v>0.9363522062296108</v>
       </c>
       <c r="F17">
-        <v>0.8844519850694066</v>
+        <v>0.8844519850694069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016315193185388</v>
+        <v>1.016315193185389</v>
       </c>
       <c r="J17">
-        <v>0.9525597252145025</v>
+        <v>0.9525597252145026</v>
       </c>
       <c r="K17">
         <v>0.9719625000241047</v>
       </c>
       <c r="L17">
-        <v>0.9515765084632948</v>
+        <v>0.9515765084632949</v>
       </c>
       <c r="M17">
-        <v>0.9008425671779018</v>
+        <v>0.900842567177902</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9251113108309676</v>
+        <v>0.9251113108309656</v>
       </c>
       <c r="D18">
-        <v>0.959763262995983</v>
+        <v>0.9597632629959811</v>
       </c>
       <c r="E18">
-        <v>0.9392772558053692</v>
+        <v>0.9392772558053675</v>
       </c>
       <c r="F18">
-        <v>0.8888703122593442</v>
+        <v>0.8888703122593418</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.01752384823012</v>
       </c>
       <c r="J18">
-        <v>0.9553359184725286</v>
+        <v>0.9553359184725266</v>
       </c>
       <c r="K18">
-        <v>0.974314664245293</v>
+        <v>0.9743146642452913</v>
       </c>
       <c r="L18">
-        <v>0.9542334758284896</v>
+        <v>0.9542334758284879</v>
       </c>
       <c r="M18">
-        <v>0.9049291921259247</v>
+        <v>0.9049291921259224</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9262519110647932</v>
+        <v>0.9262519110647921</v>
       </c>
       <c r="D19">
-        <v>0.9606397832310732</v>
+        <v>0.9606397832310721</v>
       </c>
       <c r="E19">
-        <v>0.9402616559604619</v>
+        <v>0.9402616559604606</v>
       </c>
       <c r="F19">
-        <v>0.8903554355946184</v>
+        <v>0.8903554355946173</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.017930172293869</v>
       </c>
       <c r="J19">
-        <v>0.9562698271110031</v>
+        <v>0.9562698271110018</v>
       </c>
       <c r="K19">
-        <v>0.9751059575394643</v>
+        <v>0.9751059575394634</v>
       </c>
       <c r="L19">
-        <v>0.955127291972524</v>
+        <v>0.9551272919725229</v>
       </c>
       <c r="M19">
-        <v>0.9063028380127247</v>
+        <v>0.9063028380127233</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9210904556031323</v>
+        <v>0.9210904556031332</v>
       </c>
       <c r="D20">
-        <v>0.9566746035879298</v>
+        <v>0.9566746035879305</v>
       </c>
       <c r="E20">
-        <v>0.9358078402760385</v>
+        <v>0.9358078402760396</v>
       </c>
       <c r="F20">
-        <v>0.8836287961697028</v>
+        <v>0.8836287961697044</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016090045949251</v>
+        <v>1.016090045949252</v>
       </c>
       <c r="J20">
-        <v>0.9520428686403599</v>
+        <v>0.9520428686403608</v>
       </c>
       <c r="K20">
-        <v>0.9715246022460836</v>
+        <v>0.9715246022460847</v>
       </c>
       <c r="L20">
-        <v>0.9510818571814417</v>
+        <v>0.9510818571814426</v>
       </c>
       <c r="M20">
-        <v>0.9000811903023016</v>
+        <v>0.9000811903023032</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9031148339939379</v>
+        <v>0.9031148339939375</v>
       </c>
       <c r="D21">
-        <v>0.9428921894768314</v>
+        <v>0.9428921894768313</v>
       </c>
       <c r="E21">
-        <v>0.9203141317649017</v>
+        <v>0.9203141317649012</v>
       </c>
       <c r="F21">
-        <v>0.8600667564151723</v>
+        <v>0.8600667564151722</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.009656526767692</v>
       </c>
       <c r="J21">
-        <v>0.9373068163578632</v>
+        <v>0.9373068163578627</v>
       </c>
       <c r="K21">
-        <v>0.9590427490767796</v>
+        <v>0.9590427490767794</v>
       </c>
       <c r="L21">
-        <v>0.936980641271825</v>
+        <v>0.9369806412718246</v>
       </c>
       <c r="M21">
-        <v>0.8782919111358197</v>
+        <v>0.8782919111358196</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8906935541877636</v>
+        <v>0.890693554187762</v>
       </c>
       <c r="D22">
-        <v>0.9333953991352029</v>
+        <v>0.9333953991352016</v>
       </c>
       <c r="E22">
-        <v>0.9096256800999449</v>
+        <v>0.9096256800999436</v>
       </c>
       <c r="F22">
-        <v>0.843642924808003</v>
+        <v>0.843642924808001</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.005193023972452</v>
       </c>
       <c r="J22">
-        <v>0.9271125255348823</v>
+        <v>0.9271125255348809</v>
       </c>
       <c r="K22">
-        <v>0.9504127854520259</v>
+        <v>0.9504127854520247</v>
       </c>
       <c r="L22">
-        <v>0.9272285095471251</v>
+        <v>0.9272285095471237</v>
       </c>
       <c r="M22">
-        <v>0.863110933009245</v>
+        <v>0.863110933009243</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8974002148350931</v>
+        <v>0.8974002148350942</v>
       </c>
       <c r="D23">
-        <v>0.9385201349741438</v>
+        <v>0.9385201349741447</v>
       </c>
       <c r="E23">
-        <v>0.9153947901448034</v>
+        <v>0.9153947901448048</v>
       </c>
       <c r="F23">
-        <v>0.8525265378640369</v>
+        <v>0.8525265378640386</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007604535261551</v>
+        <v>1.007604535261552</v>
       </c>
       <c r="J23">
-        <v>0.9326178164204675</v>
+        <v>0.9326178164204686</v>
       </c>
       <c r="K23">
-        <v>0.9550726745602265</v>
+        <v>0.9550726745602273</v>
       </c>
       <c r="L23">
-        <v>0.9324946354860215</v>
+        <v>0.9324946354860225</v>
       </c>
       <c r="M23">
-        <v>0.8713213164869571</v>
+        <v>0.8713213164869585</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9213758629571591</v>
+        <v>0.9213758629571577</v>
       </c>
       <c r="D24">
-        <v>0.9568937763752323</v>
+        <v>0.9568937763752309</v>
       </c>
       <c r="E24">
-        <v>0.9360540635005281</v>
+        <v>0.9360540635005266</v>
       </c>
       <c r="F24">
-        <v>0.8840011705534472</v>
+        <v>0.8840011705534448</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016191890798392</v>
+        <v>1.016191890798391</v>
       </c>
       <c r="J24">
-        <v>0.9522766565539061</v>
+        <v>0.9522766565539044</v>
       </c>
       <c r="K24">
-        <v>0.9717226743570925</v>
+        <v>0.9717226743570908</v>
       </c>
       <c r="L24">
-        <v>0.9513056006931294</v>
+        <v>0.9513056006931279</v>
       </c>
       <c r="M24">
-        <v>0.9004256030938486</v>
+        <v>0.9004256030938463</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9455038186231672</v>
+        <v>0.9455038186231666</v>
       </c>
       <c r="D25">
-        <v>0.9754561827162872</v>
+        <v>0.9754561827162866</v>
       </c>
       <c r="E25">
-        <v>0.9568907735382788</v>
+        <v>0.9568907735382786</v>
       </c>
       <c r="F25">
-        <v>0.9153181483625437</v>
+        <v>0.915318148362543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024757229012188</v>
+        <v>1.024757229012187</v>
       </c>
       <c r="J25">
-        <v>0.972015468293208</v>
+        <v>0.9720154682932075</v>
       </c>
       <c r="K25">
-        <v>0.9884478466182575</v>
+        <v>0.988447846618257</v>
       </c>
       <c r="L25">
-        <v>0.9701973222565364</v>
+        <v>0.9701973222565358</v>
       </c>
       <c r="M25">
-        <v>0.92939058333222</v>
+        <v>0.9293905833322192</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9626310369308627</v>
+        <v>1.02925795817852</v>
       </c>
       <c r="D2">
-        <v>0.9886668653317245</v>
+        <v>1.044207543066317</v>
       </c>
       <c r="E2">
-        <v>0.9717025505326135</v>
+        <v>1.030967604244752</v>
       </c>
       <c r="F2">
-        <v>0.9373878623774162</v>
+        <v>1.045929056098546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0307695761173</v>
+        <v>1.060603644905047</v>
       </c>
       <c r="J2">
-        <v>0.9859899374366525</v>
+        <v>1.05059744676903</v>
       </c>
       <c r="K2">
-        <v>1.000286379806063</v>
+        <v>1.055083526620473</v>
       </c>
       <c r="L2">
-        <v>0.9835707165988725</v>
+        <v>1.042011732500257</v>
       </c>
       <c r="M2">
-        <v>0.9497943589845836</v>
+        <v>1.056783566464484</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9741197046967075</v>
+        <v>1.035483857851193</v>
       </c>
       <c r="D3">
-        <v>0.9975400573709028</v>
+        <v>1.049148051277297</v>
       </c>
       <c r="E3">
-        <v>0.9816447563085333</v>
+        <v>1.036164774478003</v>
       </c>
       <c r="F3">
-        <v>0.952136726735985</v>
+        <v>1.051658531394422</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03476093207316</v>
+        <v>1.063220531600569</v>
       </c>
       <c r="J3">
-        <v>0.9953416490766179</v>
+        <v>1.055051813323792</v>
       </c>
       <c r="K3">
-        <v>1.008204510688726</v>
+        <v>1.05918844454072</v>
       </c>
       <c r="L3">
-        <v>0.9925180111125894</v>
+        <v>1.046354921931391</v>
       </c>
       <c r="M3">
-        <v>0.9634210127105063</v>
+        <v>1.061670493613534</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9811833483245922</v>
+        <v>1.039408997131115</v>
       </c>
       <c r="D4">
-        <v>1.002998958544203</v>
+        <v>1.052265307896286</v>
       </c>
       <c r="E4">
-        <v>0.9877593571912355</v>
+        <v>1.039445714855938</v>
       </c>
       <c r="F4">
-        <v>0.9611880062170074</v>
+        <v>1.055276693911495</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037195021052742</v>
+        <v>1.064859133171147</v>
       </c>
       <c r="J4">
-        <v>1.001080948628349</v>
+        <v>1.057855651406222</v>
       </c>
       <c r="K4">
-        <v>1.013061323034851</v>
+        <v>1.061771348048617</v>
       </c>
       <c r="L4">
-        <v>0.9980077960741724</v>
+        <v>1.049090279554902</v>
       </c>
       <c r="M4">
-        <v>0.9717785839467548</v>
+        <v>1.064750791238899</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9840725915156886</v>
+        <v>1.041035520047941</v>
       </c>
       <c r="D5">
-        <v>1.005232356364965</v>
+        <v>1.053557586136791</v>
       </c>
       <c r="E5">
-        <v>0.990260675766898</v>
+        <v>1.040806274800633</v>
       </c>
       <c r="F5">
-        <v>0.9648872364587524</v>
+        <v>1.056777390671372</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038185752416671</v>
+        <v>1.065535409413937</v>
       </c>
       <c r="J5">
-        <v>1.003425946718126</v>
+        <v>1.05901641288102</v>
       </c>
       <c r="K5">
-        <v>1.01504501281204</v>
+        <v>1.062840400975049</v>
       </c>
       <c r="L5">
-        <v>1.000250493367597</v>
+        <v>1.050223043343654</v>
       </c>
       <c r="M5">
-        <v>0.9751929860047761</v>
+        <v>1.066027004659742</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9845532168572372</v>
+        <v>1.041307268328648</v>
       </c>
       <c r="D6">
-        <v>1.005603906852583</v>
+        <v>1.053773520391588</v>
       </c>
       <c r="E6">
-        <v>0.990676780986595</v>
+        <v>1.041033643892407</v>
       </c>
       <c r="F6">
-        <v>0.965502452133724</v>
+        <v>1.057028196353595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038350270176514</v>
+        <v>1.065648234780657</v>
       </c>
       <c r="J6">
-        <v>1.00381588585945</v>
+        <v>1.059210278365327</v>
       </c>
       <c r="K6">
-        <v>1.015374825721241</v>
+        <v>1.063018935041015</v>
       </c>
       <c r="L6">
-        <v>1.000623399680373</v>
+        <v>1.050412253296936</v>
       </c>
       <c r="M6">
-        <v>0.9757607521484254</v>
+        <v>1.066240211209355</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9812222600595623</v>
+        <v>1.039430822091807</v>
       </c>
       <c r="D7">
-        <v>1.003029035653496</v>
+        <v>1.05228264589439</v>
       </c>
       <c r="E7">
-        <v>0.9877930435947992</v>
+        <v>1.039463967270153</v>
       </c>
       <c r="F7">
-        <v>0.9612378374438982</v>
+        <v>1.055296825128893</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037208383557729</v>
+        <v>1.064868218443678</v>
       </c>
       <c r="J7">
-        <v>1.001112540757649</v>
+        <v>1.057871231149804</v>
       </c>
       <c r="K7">
-        <v>1.013088050615049</v>
+        <v>1.061785697858308</v>
       </c>
       <c r="L7">
-        <v>0.998038011438571</v>
+        <v>1.049105482128218</v>
       </c>
       <c r="M7">
-        <v>0.9718245836818162</v>
+        <v>1.064767916623903</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9665958218229659</v>
+        <v>1.031384168896533</v>
       </c>
       <c r="D8">
-        <v>0.9917281491470233</v>
+        <v>1.045894210287738</v>
       </c>
       <c r="E8">
-        <v>0.97513315411087</v>
+        <v>1.032741533492524</v>
       </c>
       <c r="F8">
-        <v>0.9424820671764937</v>
+        <v>1.047884434053089</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032151212267572</v>
+        <v>1.061499673837879</v>
       </c>
       <c r="J8">
-        <v>0.9892194675827941</v>
+        <v>1.052119563805771</v>
       </c>
       <c r="K8">
-        <v>1.003021346131681</v>
+        <v>1.056486430241196</v>
       </c>
       <c r="L8">
-        <v>0.9866608417472894</v>
+        <v>1.043495537725617</v>
       </c>
       <c r="M8">
-        <v>0.9545019562034195</v>
+        <v>1.058452612517148</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9375207092744405</v>
+        <v>1.016356317162198</v>
       </c>
       <c r="D9">
-        <v>0.9693075607549881</v>
+        <v>1.033986779451469</v>
       </c>
       <c r="E9">
-        <v>0.9499922893967346</v>
+        <v>1.020225173199904</v>
       </c>
       <c r="F9">
-        <v>0.9049895117027632</v>
+        <v>1.034092347039643</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021933945508185</v>
+        <v>1.055120411164556</v>
       </c>
       <c r="J9">
-        <v>0.9654905551734657</v>
+        <v>1.041344424645009</v>
       </c>
       <c r="K9">
-        <v>0.9829190361160897</v>
+        <v>1.046551502040214</v>
       </c>
       <c r="L9">
-        <v>0.9639523943689664</v>
+        <v>1.032998417509841</v>
       </c>
       <c r="M9">
-        <v>0.9198383120847062</v>
+        <v>1.046655497302982</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.915057699228272</v>
+        <v>1.005680497308531</v>
       </c>
       <c r="D10">
-        <v>0.9520442931450218</v>
+        <v>1.025549031383481</v>
       </c>
       <c r="E10">
-        <v>0.9306048912318563</v>
+        <v>1.011364629902843</v>
       </c>
       <c r="F10">
-        <v>0.8757457548717927</v>
+        <v>1.024333840688708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.013934927751297</v>
+        <v>1.050531802674677</v>
       </c>
       <c r="J10">
-        <v>0.9470997962636372</v>
+        <v>1.03367053718159</v>
       </c>
       <c r="K10">
-        <v>0.9673369685553547</v>
+        <v>1.039471819825325</v>
       </c>
       <c r="L10">
-        <v>0.9463513184561062</v>
+        <v>1.025531680002255</v>
       </c>
       <c r="M10">
-        <v>0.8927903691995343</v>
+        <v>1.03827721324652</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9043140534259886</v>
+        <v>1.000879901392876</v>
       </c>
       <c r="D11">
-        <v>0.9438102772121651</v>
+        <v>1.02176120869385</v>
       </c>
       <c r="E11">
-        <v>0.9213468645887883</v>
+        <v>1.007388944627958</v>
       </c>
       <c r="F11">
-        <v>0.8616458336079057</v>
+        <v>1.019956246996999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.010086775679745</v>
+        <v>1.048455743187001</v>
       </c>
       <c r="J11">
-        <v>0.9382905663871886</v>
+        <v>1.030216121196462</v>
       </c>
       <c r="K11">
-        <v>0.9598757867404132</v>
+        <v>1.036284086671744</v>
       </c>
       <c r="L11">
-        <v>0.9379218759397197</v>
+        <v>1.022172848698433</v>
       </c>
       <c r="M11">
-        <v>0.8797518762683842</v>
+        <v>1.034511381682582</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9001349369169589</v>
+        <v>0.9990679176617</v>
       </c>
       <c r="D12">
-        <v>0.9406117722454587</v>
+        <v>1.020332577606518</v>
       </c>
       <c r="E12">
-        <v>0.9177485320943355</v>
+        <v>1.005889737685217</v>
       </c>
       <c r="F12">
-        <v>0.8561381416992522</v>
+        <v>1.018305613426324</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.008586859281919</v>
+        <v>1.047670299201943</v>
       </c>
       <c r="J12">
-        <v>0.9348619635728413</v>
+        <v>1.02891177733802</v>
       </c>
       <c r="K12">
-        <v>0.9569726252708666</v>
+        <v>1.035080336505073</v>
       </c>
       <c r="L12">
-        <v>0.9346415554967475</v>
+        <v>1.020904962878332</v>
       </c>
       <c r="M12">
-        <v>0.8746598972223135</v>
+        <v>1.033090313757898</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9010406193240276</v>
+        <v>0.9994579350518078</v>
       </c>
       <c r="D13">
-        <v>0.9413047234826143</v>
+        <v>1.020640029975591</v>
       </c>
       <c r="E13">
-        <v>0.9185282052469104</v>
+        <v>1.006212366108319</v>
       </c>
       <c r="F13">
-        <v>0.857332905631905</v>
+        <v>1.018660823209607</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.008912046242701</v>
+        <v>1.047839442440449</v>
       </c>
       <c r="J13">
-        <v>0.9356050842515504</v>
+        <v>1.029192548740557</v>
       </c>
       <c r="K13">
-        <v>0.9576018190672824</v>
+        <v>1.035339458559193</v>
       </c>
       <c r="L13">
-        <v>0.9353525113948767</v>
+        <v>1.021177869558413</v>
       </c>
       <c r="M13">
-        <v>0.8757644185486632</v>
+        <v>1.033396171905385</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9039727046874925</v>
+        <v>1.000730723287328</v>
       </c>
       <c r="D14">
-        <v>0.9435489293815943</v>
+        <v>1.021643568779867</v>
       </c>
       <c r="E14">
-        <v>0.9210528910378827</v>
+        <v>1.007265487582389</v>
       </c>
       <c r="F14">
-        <v>0.8611964729078233</v>
+        <v>1.01982031770559</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.009964322059151</v>
+        <v>1.048391115498987</v>
       </c>
       <c r="J14">
-        <v>0.9380105581811995</v>
+        <v>1.030108745539639</v>
       </c>
       <c r="K14">
-        <v>0.9596386723937712</v>
+        <v>1.036184994017713</v>
       </c>
       <c r="L14">
-        <v>0.9376539666309063</v>
+        <v>1.022068466793103</v>
       </c>
       <c r="M14">
-        <v>0.879336405696021</v>
+        <v>1.034394379544279</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9057529973430554</v>
+        <v>1.001511043437077</v>
       </c>
       <c r="D15">
-        <v>0.9449121634526521</v>
+        <v>1.02225896387078</v>
       </c>
       <c r="E15">
-        <v>0.9225862212197875</v>
+        <v>1.007911324403886</v>
       </c>
       <c r="F15">
-        <v>0.8635391315464276</v>
+        <v>1.020531405373126</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.010602854577958</v>
+        <v>1.048729095460188</v>
       </c>
       <c r="J15">
-        <v>0.9394708535209851</v>
+        <v>1.030670386784263</v>
       </c>
       <c r="K15">
-        <v>0.9608753017309124</v>
+        <v>1.036703305967621</v>
       </c>
       <c r="L15">
-        <v>0.9390511843418003</v>
+        <v>1.022614463866847</v>
       </c>
       <c r="M15">
-        <v>0.8815024332814786</v>
+        <v>1.035006408411089</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9157465301262281</v>
+        <v>1.00599517451334</v>
       </c>
       <c r="D16">
-        <v>0.9525727523430393</v>
+        <v>1.025797464200038</v>
       </c>
       <c r="E16">
-        <v>0.9311988196248205</v>
+        <v>1.01162542334141</v>
       </c>
       <c r="F16">
-        <v>0.8766470444721232</v>
+        <v>1.024621017334233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.01418122553716</v>
+        <v>1.050667629988559</v>
       </c>
       <c r="J16">
-        <v>0.947664338151433</v>
+        <v>1.033896902664144</v>
       </c>
       <c r="K16">
-        <v>0.9678152024677579</v>
+        <v>1.039680694641273</v>
       </c>
       <c r="L16">
-        <v>0.9468915698607651</v>
+        <v>1.025751831609944</v>
       </c>
       <c r="M16">
-        <v>0.8936239158667613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.038524104049507</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9217214422396119</v>
+        <v>1.008758906963188</v>
       </c>
       <c r="D17">
-        <v>0.9571591705515645</v>
+        <v>1.027980124642287</v>
       </c>
       <c r="E17">
-        <v>0.9363522062296108</v>
+        <v>1.013916898788194</v>
       </c>
       <c r="F17">
-        <v>0.8844519850694069</v>
+        <v>1.02714442171025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.016315193185389</v>
+        <v>1.051859137993652</v>
       </c>
       <c r="J17">
-        <v>0.9525597252145026</v>
+        <v>1.035884605163947</v>
       </c>
       <c r="K17">
-        <v>0.9719625000241047</v>
+        <v>1.041514724076001</v>
       </c>
       <c r="L17">
-        <v>0.9515765084632949</v>
+        <v>1.027685236481231</v>
       </c>
       <c r="M17">
-        <v>0.900842567177902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.040692681027226</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9251113108309656</v>
+        <v>1.010353934058312</v>
       </c>
       <c r="D18">
-        <v>0.9597632629959811</v>
+        <v>1.029240392053648</v>
       </c>
       <c r="E18">
-        <v>0.9392772558053675</v>
+        <v>1.015240179550277</v>
       </c>
       <c r="F18">
-        <v>0.8888703122593418</v>
+        <v>1.028601732911786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01752384823012</v>
+        <v>1.052545587622822</v>
       </c>
       <c r="J18">
-        <v>0.9553359184725266</v>
+        <v>1.037031409254572</v>
       </c>
       <c r="K18">
-        <v>0.9743146642452913</v>
+        <v>1.042572789932045</v>
       </c>
       <c r="L18">
-        <v>0.9542334758284879</v>
+        <v>1.02880093266979</v>
       </c>
       <c r="M18">
-        <v>0.9049291921259224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.041944374286943</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9262519110647921</v>
+        <v>1.010894971994551</v>
       </c>
       <c r="D19">
-        <v>0.9606397832310721</v>
+        <v>1.029667975643593</v>
       </c>
       <c r="E19">
-        <v>0.9402616559604606</v>
+        <v>1.015689173792455</v>
       </c>
       <c r="F19">
-        <v>0.8903554355946173</v>
+        <v>1.029096221083283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.017930172293869</v>
+        <v>1.052778227290529</v>
       </c>
       <c r="J19">
-        <v>0.9562698271110018</v>
+        <v>1.037420346212495</v>
       </c>
       <c r="K19">
-        <v>0.9751059575394634</v>
+        <v>1.042931617942206</v>
       </c>
       <c r="L19">
-        <v>0.9551272919725229</v>
+        <v>1.029179356154237</v>
       </c>
       <c r="M19">
-        <v>0.9063028380127233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.042368974496041</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9210904556031332</v>
+        <v>1.008464158679443</v>
       </c>
       <c r="D20">
-        <v>0.9566746035879305</v>
+        <v>1.027747284446466</v>
       </c>
       <c r="E20">
-        <v>0.9358078402760396</v>
+        <v>1.013672431523175</v>
       </c>
       <c r="F20">
-        <v>0.8836287961697044</v>
+        <v>1.026875201137667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.016090045949252</v>
+        <v>1.051732189730948</v>
       </c>
       <c r="J20">
-        <v>0.9520428686403608</v>
+        <v>1.035672655679372</v>
       </c>
       <c r="K20">
-        <v>0.9715246022460847</v>
+        <v>1.041319168647274</v>
       </c>
       <c r="L20">
-        <v>0.9510818571814426</v>
+        <v>1.027479053911148</v>
       </c>
       <c r="M20">
-        <v>0.9000811903023032</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.040461389318668</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9031148339939375</v>
+        <v>1.000356732676792</v>
       </c>
       <c r="D21">
-        <v>0.9428921894768313</v>
+        <v>1.021348662490386</v>
       </c>
       <c r="E21">
-        <v>0.9203141317649012</v>
+        <v>1.006956003035557</v>
       </c>
       <c r="F21">
-        <v>0.8600667564151722</v>
+        <v>1.019479569518774</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.009656526767692</v>
+        <v>1.048229064124035</v>
       </c>
       <c r="J21">
-        <v>0.9373068163578627</v>
+        <v>1.029839546611921</v>
       </c>
       <c r="K21">
-        <v>0.9590427490767794</v>
+        <v>1.035936559622895</v>
       </c>
       <c r="L21">
-        <v>0.9369806412718246</v>
+        <v>1.021806779379738</v>
       </c>
       <c r="M21">
-        <v>0.8782919111358196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.034101060212994</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.890693554187762</v>
+        <v>0.995091270045002</v>
       </c>
       <c r="D22">
-        <v>0.9333953991352016</v>
+        <v>1.017199388699498</v>
       </c>
       <c r="E22">
-        <v>0.9096256800999436</v>
+        <v>1.002602266628288</v>
       </c>
       <c r="F22">
-        <v>0.843642924808001</v>
+        <v>1.01468630992264</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.005193023972452</v>
+        <v>1.045943236925847</v>
       </c>
       <c r="J22">
-        <v>0.9271125255348809</v>
+        <v>1.026048434355009</v>
       </c>
       <c r="K22">
-        <v>0.9504127854520247</v>
+        <v>1.03243765271953</v>
       </c>
       <c r="L22">
-        <v>0.9272285095471237</v>
+        <v>1.018122347776574</v>
       </c>
       <c r="M22">
-        <v>0.863110933009243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.029972336437065</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8974002148350942</v>
+        <v>0.997899277438605</v>
       </c>
       <c r="D23">
-        <v>0.9385201349741447</v>
+        <v>1.019411502149166</v>
       </c>
       <c r="E23">
-        <v>0.9153947901448048</v>
+        <v>1.004923237306378</v>
       </c>
       <c r="F23">
-        <v>0.8525265378640386</v>
+        <v>1.017241526328286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007604535261552</v>
+        <v>1.04716321863175</v>
       </c>
       <c r="J23">
-        <v>0.9326178164204686</v>
+        <v>1.028070416472578</v>
       </c>
       <c r="K23">
-        <v>0.9550726745602273</v>
+        <v>1.034303836617601</v>
       </c>
       <c r="L23">
-        <v>0.9324946354860225</v>
+        <v>1.020087224472272</v>
       </c>
       <c r="M23">
-        <v>0.8713213164869585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.03217390516601</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9213758629571577</v>
+        <v>1.008597395155922</v>
       </c>
       <c r="D24">
-        <v>0.9568937763752309</v>
+        <v>1.027852534481718</v>
       </c>
       <c r="E24">
-        <v>0.9360540635005266</v>
+        <v>1.013782936735955</v>
       </c>
       <c r="F24">
-        <v>0.8840011705534448</v>
+        <v>1.026996895153954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.016191890798391</v>
+        <v>1.051789578500549</v>
       </c>
       <c r="J24">
-        <v>0.9522766565539044</v>
+        <v>1.035768465324921</v>
       </c>
       <c r="K24">
-        <v>0.9717226743570908</v>
+        <v>1.041407567762987</v>
       </c>
       <c r="L24">
-        <v>0.9513056006931279</v>
+        <v>1.027572256001637</v>
       </c>
       <c r="M24">
-        <v>0.9004256030938463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.040565940767047</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9455038186231666</v>
+        <v>1.020350377476141</v>
       </c>
       <c r="D25">
-        <v>0.9754561827162866</v>
+        <v>1.037148258806532</v>
       </c>
       <c r="E25">
-        <v>0.9568907735382786</v>
+        <v>1.023546796518085</v>
       </c>
       <c r="F25">
-        <v>0.915318148362543</v>
+        <v>1.037751577592749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.024757229012187</v>
+        <v>1.056825818483305</v>
       </c>
       <c r="J25">
-        <v>0.9720154682932075</v>
+        <v>1.044211756982797</v>
       </c>
       <c r="K25">
-        <v>0.988447846618257</v>
+        <v>1.049196021896475</v>
       </c>
       <c r="L25">
-        <v>0.9701973222565358</v>
+        <v>1.035790253621859</v>
       </c>
       <c r="M25">
-        <v>0.9293905833322192</v>
+        <v>1.049790810501649</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.02925795817852</v>
+        <v>1.057552590131079</v>
       </c>
       <c r="D2">
-        <v>1.044207543066317</v>
+        <v>1.060863525316217</v>
       </c>
       <c r="E2">
-        <v>1.030967604244752</v>
+        <v>1.053643488690419</v>
       </c>
       <c r="F2">
-        <v>1.045929056098546</v>
+        <v>1.069306891305746</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060603644905047</v>
+        <v>1.051976358614207</v>
       </c>
       <c r="J2">
-        <v>1.05059744676903</v>
+        <v>1.06254841701045</v>
       </c>
       <c r="K2">
-        <v>1.055083526620473</v>
+        <v>1.063589147592431</v>
       </c>
       <c r="L2">
-        <v>1.042011732500257</v>
+        <v>1.056388890393098</v>
       </c>
       <c r="M2">
-        <v>1.056783566464484</v>
+        <v>1.072009749352477</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.035483857851193</v>
+        <v>1.058801790855001</v>
       </c>
       <c r="D3">
-        <v>1.049148051277297</v>
+        <v>1.061866529510889</v>
       </c>
       <c r="E3">
-        <v>1.036164774478003</v>
+        <v>1.054722483998048</v>
       </c>
       <c r="F3">
-        <v>1.051658531394422</v>
+        <v>1.070507465402748</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063220531600569</v>
+        <v>1.052416036808772</v>
       </c>
       <c r="J3">
-        <v>1.055051813323792</v>
+        <v>1.063448691681089</v>
       </c>
       <c r="K3">
-        <v>1.05918844454072</v>
+        <v>1.064406184900866</v>
       </c>
       <c r="L3">
-        <v>1.046354921931391</v>
+        <v>1.057280290439264</v>
       </c>
       <c r="M3">
-        <v>1.061670493613534</v>
+        <v>1.07302551511633</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.039408997131115</v>
+        <v>1.059609601515911</v>
       </c>
       <c r="D4">
-        <v>1.052265307896286</v>
+        <v>1.062515043672138</v>
       </c>
       <c r="E4">
-        <v>1.039445714855938</v>
+        <v>1.05542034430982</v>
       </c>
       <c r="F4">
-        <v>1.055276693911495</v>
+        <v>1.071284212715246</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064859133171147</v>
+        <v>1.052698965749616</v>
       </c>
       <c r="J4">
-        <v>1.057855651406222</v>
+        <v>1.06403019862639</v>
       </c>
       <c r="K4">
-        <v>1.061771348048617</v>
+        <v>1.064933753438698</v>
       </c>
       <c r="L4">
-        <v>1.049090279554902</v>
+        <v>1.057856169056119</v>
       </c>
       <c r="M4">
-        <v>1.064750791238899</v>
+        <v>1.073682104331751</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.041035520047941</v>
+        <v>1.059949086695822</v>
       </c>
       <c r="D5">
-        <v>1.053557586136791</v>
+        <v>1.062787561587332</v>
       </c>
       <c r="E5">
-        <v>1.040806274800633</v>
+        <v>1.055713649400142</v>
       </c>
       <c r="F5">
-        <v>1.056777390671372</v>
+        <v>1.071610734183192</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065535409413937</v>
+        <v>1.052817533617572</v>
       </c>
       <c r="J5">
-        <v>1.05901641288102</v>
+        <v>1.064274419007901</v>
       </c>
       <c r="K5">
-        <v>1.062840400975049</v>
+        <v>1.065155279148803</v>
       </c>
       <c r="L5">
-        <v>1.050223043343654</v>
+        <v>1.05809805050638</v>
       </c>
       <c r="M5">
-        <v>1.066027004659742</v>
+        <v>1.073957973561703</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.041307268328648</v>
+        <v>1.06000608088409</v>
       </c>
       <c r="D6">
-        <v>1.053773520391588</v>
+        <v>1.062833311699996</v>
       </c>
       <c r="E6">
-        <v>1.041033643892407</v>
+        <v>1.055762892242888</v>
       </c>
       <c r="F6">
-        <v>1.057028196353595</v>
+        <v>1.071665557274681</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065648234780657</v>
+        <v>1.05283741969458</v>
       </c>
       <c r="J6">
-        <v>1.059210278365327</v>
+        <v>1.064315410358249</v>
       </c>
       <c r="K6">
-        <v>1.063018935041015</v>
+        <v>1.065192458845241</v>
       </c>
       <c r="L6">
-        <v>1.050412253296936</v>
+        <v>1.058138650732802</v>
       </c>
       <c r="M6">
-        <v>1.066240211209355</v>
+        <v>1.074004283835238</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.039430822091807</v>
+        <v>1.059614138195502</v>
       </c>
       <c r="D7">
-        <v>1.05228264589439</v>
+        <v>1.062518685529498</v>
       </c>
       <c r="E7">
-        <v>1.039463967270153</v>
+        <v>1.055424263760935</v>
       </c>
       <c r="F7">
-        <v>1.055296825128893</v>
+        <v>1.071288575799492</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064868218443678</v>
+        <v>1.052700551533395</v>
       </c>
       <c r="J7">
-        <v>1.057871231149804</v>
+        <v>1.064033462872215</v>
       </c>
       <c r="K7">
-        <v>1.061785697858308</v>
+        <v>1.064936714512017</v>
       </c>
       <c r="L7">
-        <v>1.049105482128218</v>
+        <v>1.057859401942217</v>
       </c>
       <c r="M7">
-        <v>1.064767916623903</v>
+        <v>1.073685791139897</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.031384168896533</v>
+        <v>1.0579748696789</v>
       </c>
       <c r="D8">
-        <v>1.045894210287738</v>
+        <v>1.061202598985294</v>
       </c>
       <c r="E8">
-        <v>1.032741533492524</v>
+        <v>1.05400820783536</v>
       </c>
       <c r="F8">
-        <v>1.047884434053089</v>
+        <v>1.069712653702173</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061499673837879</v>
+        <v>1.052125276030923</v>
       </c>
       <c r="J8">
-        <v>1.052119563805771</v>
+        <v>1.06285288352938</v>
       </c>
       <c r="K8">
-        <v>1.056486430241196</v>
+        <v>1.0638654997242</v>
       </c>
       <c r="L8">
-        <v>1.043495537725617</v>
+        <v>1.056690333990443</v>
       </c>
       <c r="M8">
-        <v>1.058452612517148</v>
+        <v>1.072353173805439</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016356317162198</v>
+        <v>1.055082276726819</v>
       </c>
       <c r="D9">
-        <v>1.033986779451469</v>
+        <v>1.058879617230986</v>
       </c>
       <c r="E9">
-        <v>1.020225173199904</v>
+        <v>1.051510397225224</v>
       </c>
       <c r="F9">
-        <v>1.034092347039643</v>
+        <v>1.066934792788141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055120411164556</v>
+        <v>1.051099483141501</v>
       </c>
       <c r="J9">
-        <v>1.041344424645009</v>
+        <v>1.060764580479795</v>
       </c>
       <c r="K9">
-        <v>1.046551502040214</v>
+        <v>1.061969321715878</v>
       </c>
       <c r="L9">
-        <v>1.032998417509841</v>
+        <v>1.054623194613806</v>
       </c>
       <c r="M9">
-        <v>1.046655497302982</v>
+        <v>1.069999653091789</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005680497308531</v>
+        <v>1.053151028688239</v>
       </c>
       <c r="D10">
-        <v>1.025549031383481</v>
+        <v>1.057328267207135</v>
       </c>
       <c r="E10">
-        <v>1.011364629902843</v>
+        <v>1.049843376418913</v>
       </c>
       <c r="F10">
-        <v>1.024333840688708</v>
+        <v>1.065082169017708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050531802674677</v>
+        <v>1.050407436042756</v>
       </c>
       <c r="J10">
-        <v>1.03367053718159</v>
+        <v>1.059366911386689</v>
       </c>
       <c r="K10">
-        <v>1.039471819825325</v>
+        <v>1.060699354029712</v>
       </c>
       <c r="L10">
-        <v>1.025531680002255</v>
+        <v>1.053240232595083</v>
       </c>
       <c r="M10">
-        <v>1.03827721324652</v>
+        <v>1.068426979996791</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000879901392876</v>
+        <v>1.052314062191992</v>
       </c>
       <c r="D11">
-        <v>1.02176120869385</v>
+        <v>1.056655854459434</v>
       </c>
       <c r="E11">
-        <v>1.007388944627958</v>
+        <v>1.04912108336041</v>
       </c>
       <c r="F11">
-        <v>1.019956246996999</v>
+        <v>1.064279764697687</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048455743187001</v>
+        <v>1.050105816672859</v>
       </c>
       <c r="J11">
-        <v>1.030216121196462</v>
+        <v>1.058760383944182</v>
       </c>
       <c r="K11">
-        <v>1.036284086671744</v>
+        <v>1.060148035291061</v>
       </c>
       <c r="L11">
-        <v>1.022172848698433</v>
+        <v>1.052640216845454</v>
       </c>
       <c r="M11">
-        <v>1.034511381682582</v>
+        <v>1.067745102018123</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9990679176617</v>
+        <v>1.052003063514989</v>
       </c>
       <c r="D12">
-        <v>1.020332577606518</v>
+        <v>1.056405988105176</v>
       </c>
       <c r="E12">
-        <v>1.005889737685217</v>
+        <v>1.048852719939243</v>
       </c>
       <c r="F12">
-        <v>1.018305613426324</v>
+        <v>1.063981682561399</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047670299201943</v>
+        <v>1.049993486310333</v>
       </c>
       <c r="J12">
-        <v>1.02891177733802</v>
+        <v>1.058534890994112</v>
       </c>
       <c r="K12">
-        <v>1.035080336505073</v>
+        <v>1.059943036539346</v>
       </c>
       <c r="L12">
-        <v>1.020904962878332</v>
+        <v>1.052417164311866</v>
       </c>
       <c r="M12">
-        <v>1.033090313757898</v>
+        <v>1.067491684669192</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9994579350518078</v>
+        <v>1.052069778911977</v>
       </c>
       <c r="D13">
-        <v>1.020640029975591</v>
+        <v>1.056459589948283</v>
       </c>
       <c r="E13">
-        <v>1.006212366108319</v>
+        <v>1.048910288080421</v>
       </c>
       <c r="F13">
-        <v>1.018660823209607</v>
+        <v>1.064045623745112</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047839442440449</v>
+        <v>1.050017594946793</v>
       </c>
       <c r="J13">
-        <v>1.029192548740557</v>
+        <v>1.058583269158117</v>
       </c>
       <c r="K13">
-        <v>1.035339458559193</v>
+        <v>1.059987019201783</v>
       </c>
       <c r="L13">
-        <v>1.021177869558413</v>
+        <v>1.052465018014842</v>
       </c>
       <c r="M13">
-        <v>1.033396171905385</v>
+        <v>1.067546049809799</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000730723287328</v>
+        <v>1.052288357249788</v>
       </c>
       <c r="D14">
-        <v>1.021643568779867</v>
+        <v>1.056635202527371</v>
       </c>
       <c r="E14">
-        <v>1.007265487582389</v>
+        <v>1.04909890183007</v>
       </c>
       <c r="F14">
-        <v>1.01982031770559</v>
+        <v>1.064255125832042</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048391115498987</v>
+        <v>1.050096537445498</v>
       </c>
       <c r="J14">
-        <v>1.030108745539639</v>
+        <v>1.058741748753042</v>
       </c>
       <c r="K14">
-        <v>1.036184994017713</v>
+        <v>1.060131094415708</v>
       </c>
       <c r="L14">
-        <v>1.022068466793103</v>
+        <v>1.052621782936775</v>
       </c>
       <c r="M14">
-        <v>1.034394379544279</v>
+        <v>1.067724157279264</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.001511043437077</v>
+        <v>1.052423015628177</v>
       </c>
       <c r="D15">
-        <v>1.02225896387078</v>
+        <v>1.056743389615791</v>
       </c>
       <c r="E15">
-        <v>1.007911324403886</v>
+        <v>1.049215103430049</v>
       </c>
       <c r="F15">
-        <v>1.020531405373126</v>
+        <v>1.064384202475688</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048729095460188</v>
+        <v>1.050145137329851</v>
       </c>
       <c r="J15">
-        <v>1.030670386784263</v>
+        <v>1.058839366474839</v>
       </c>
       <c r="K15">
-        <v>1.036703305967621</v>
+        <v>1.060219835438748</v>
       </c>
       <c r="L15">
-        <v>1.022614463866847</v>
+        <v>1.052718347069312</v>
       </c>
       <c r="M15">
-        <v>1.035006408411089</v>
+        <v>1.067833876880447</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.00599517451334</v>
+        <v>1.053206559869737</v>
       </c>
       <c r="D16">
-        <v>1.025797464200038</v>
+        <v>1.057372878785883</v>
       </c>
       <c r="E16">
-        <v>1.01162542334141</v>
+        <v>1.049891302707823</v>
       </c>
       <c r="F16">
-        <v>1.024621017334233</v>
+        <v>1.065135417396768</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050667629988559</v>
+        <v>1.050427412157218</v>
       </c>
       <c r="J16">
-        <v>1.033896902664144</v>
+        <v>1.059407136458081</v>
       </c>
       <c r="K16">
-        <v>1.039680694641273</v>
+        <v>1.060735913274969</v>
       </c>
       <c r="L16">
-        <v>1.025751831609944</v>
+        <v>1.053280028540301</v>
       </c>
       <c r="M16">
-        <v>1.038524104049507</v>
+        <v>1.068472214833849</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008758906963188</v>
+        <v>1.053697860426766</v>
       </c>
       <c r="D17">
-        <v>1.027980124642287</v>
+        <v>1.05776756049454</v>
       </c>
       <c r="E17">
-        <v>1.013916898788194</v>
+        <v>1.050315339393956</v>
       </c>
       <c r="F17">
-        <v>1.02714442171025</v>
+        <v>1.065606577757963</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051859137993652</v>
+        <v>1.050603950481245</v>
       </c>
       <c r="J17">
-        <v>1.035884605163947</v>
+        <v>1.059762926599858</v>
       </c>
       <c r="K17">
-        <v>1.041514724076001</v>
+        <v>1.06105925524127</v>
       </c>
       <c r="L17">
-        <v>1.027685236481231</v>
+        <v>1.053632038014998</v>
       </c>
       <c r="M17">
-        <v>1.040692681027226</v>
+        <v>1.06887238477121</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010353934058312</v>
+        <v>1.053984358166449</v>
       </c>
       <c r="D18">
-        <v>1.029240392053648</v>
+        <v>1.057997707344724</v>
       </c>
       <c r="E18">
-        <v>1.015240179550277</v>
+        <v>1.05056262838806</v>
       </c>
       <c r="F18">
-        <v>1.028601732911786</v>
+        <v>1.065881377919235</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052545587622822</v>
+        <v>1.050706733427319</v>
       </c>
       <c r="J18">
-        <v>1.037031409254572</v>
+        <v>1.059970325035991</v>
       </c>
       <c r="K18">
-        <v>1.042572789932045</v>
+        <v>1.06124771880737</v>
       </c>
       <c r="L18">
-        <v>1.02880093266979</v>
+        <v>1.053837245082009</v>
       </c>
       <c r="M18">
-        <v>1.041944374286943</v>
+        <v>1.069105710428633</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010894971994551</v>
+        <v>1.05408203479444</v>
       </c>
       <c r="D19">
-        <v>1.029667975643593</v>
+        <v>1.058076170623507</v>
       </c>
       <c r="E19">
-        <v>1.015689173792455</v>
+        <v>1.05064694007434</v>
       </c>
       <c r="F19">
-        <v>1.029096221083283</v>
+        <v>1.065975074405156</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052778227290529</v>
+        <v>1.050741747758022</v>
       </c>
       <c r="J19">
-        <v>1.037420346212495</v>
+        <v>1.060041020909584</v>
       </c>
       <c r="K19">
-        <v>1.042931617942206</v>
+        <v>1.061311956946805</v>
       </c>
       <c r="L19">
-        <v>1.029179356154237</v>
+        <v>1.053907196097113</v>
       </c>
       <c r="M19">
-        <v>1.042368974496041</v>
+        <v>1.069185253810992</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008464158679443</v>
+        <v>1.053645155747605</v>
       </c>
       <c r="D20">
-        <v>1.027747284446466</v>
+        <v>1.057725221549868</v>
       </c>
       <c r="E20">
-        <v>1.013672431523175</v>
+        <v>1.050269848883253</v>
       </c>
       <c r="F20">
-        <v>1.026875201137667</v>
+        <v>1.065556028767725</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051732189730948</v>
+        <v>1.05058502913547</v>
       </c>
       <c r="J20">
-        <v>1.035672655679372</v>
+        <v>1.059724766934607</v>
       </c>
       <c r="K20">
-        <v>1.041319168647274</v>
+        <v>1.061024577824758</v>
       </c>
       <c r="L20">
-        <v>1.027479053911148</v>
+        <v>1.05359428254804</v>
       </c>
       <c r="M20">
-        <v>1.040461389318668</v>
+        <v>1.068829459309019</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.000356732676792</v>
+        <v>1.05222399449766</v>
       </c>
       <c r="D21">
-        <v>1.021348662490386</v>
+        <v>1.05658349184026</v>
       </c>
       <c r="E21">
-        <v>1.006956003035557</v>
+        <v>1.049043361776632</v>
       </c>
       <c r="F21">
-        <v>1.019479569518774</v>
+        <v>1.064193433632469</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048229064124035</v>
+        <v>1.050073299014656</v>
       </c>
       <c r="J21">
-        <v>1.029839546611921</v>
+        <v>1.058695086046714</v>
       </c>
       <c r="K21">
-        <v>1.035936559622895</v>
+        <v>1.060088673790931</v>
       </c>
       <c r="L21">
-        <v>1.021806779379738</v>
+        <v>1.052575624559241</v>
       </c>
       <c r="M21">
-        <v>1.034101060212994</v>
+        <v>1.067671712882853</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.995091270045002</v>
+        <v>1.051329804021973</v>
       </c>
       <c r="D22">
-        <v>1.017199388699498</v>
+        <v>1.055865048080422</v>
       </c>
       <c r="E22">
-        <v>1.002602266628288</v>
+        <v>1.048271805191484</v>
       </c>
       <c r="F22">
-        <v>1.01468630992264</v>
+        <v>1.0633365212464</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045943236925847</v>
+        <v>1.049749843679928</v>
       </c>
       <c r="J22">
-        <v>1.026048434355009</v>
+        <v>1.058046517006922</v>
       </c>
       <c r="K22">
-        <v>1.03243765271953</v>
+        <v>1.059498992220822</v>
       </c>
       <c r="L22">
-        <v>1.018122347776574</v>
+        <v>1.051934111576795</v>
       </c>
       <c r="M22">
-        <v>1.029972336437065</v>
+        <v>1.066942995051001</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.997899277438605</v>
+        <v>1.051803894054778</v>
       </c>
       <c r="D23">
-        <v>1.019411502149166</v>
+        <v>1.056245965578085</v>
       </c>
       <c r="E23">
-        <v>1.004923237306378</v>
+        <v>1.048680862054109</v>
       </c>
       <c r="F23">
-        <v>1.017241526328286</v>
+        <v>1.063790806010913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04716321863175</v>
+        <v>1.049921476014495</v>
       </c>
       <c r="J23">
-        <v>1.028070416472578</v>
+        <v>1.058390447160204</v>
       </c>
       <c r="K23">
-        <v>1.034303836617601</v>
+        <v>1.059811711911694</v>
       </c>
       <c r="L23">
-        <v>1.020087224472272</v>
+        <v>1.052274289237208</v>
       </c>
       <c r="M23">
-        <v>1.03217390516601</v>
+        <v>1.067329378439953</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008597395155922</v>
+        <v>1.053668970938334</v>
       </c>
       <c r="D24">
-        <v>1.027852534481718</v>
+        <v>1.057744352895255</v>
       </c>
       <c r="E24">
-        <v>1.013782936735955</v>
+        <v>1.050290404224228</v>
       </c>
       <c r="F24">
-        <v>1.026996895153954</v>
+        <v>1.065578869741457</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051789578500549</v>
+        <v>1.050593579460739</v>
       </c>
       <c r="J24">
-        <v>1.035768465324921</v>
+        <v>1.05974201004005</v>
       </c>
       <c r="K24">
-        <v>1.041407567762987</v>
+        <v>1.06104024747785</v>
       </c>
       <c r="L24">
-        <v>1.027572256001637</v>
+        <v>1.053611342970953</v>
       </c>
       <c r="M24">
-        <v>1.040565940767047</v>
+        <v>1.068848855745557</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.020350377476141</v>
+        <v>1.055830571778574</v>
       </c>
       <c r="D25">
-        <v>1.037148258806532</v>
+        <v>1.059480631872241</v>
       </c>
       <c r="E25">
-        <v>1.023546796518085</v>
+        <v>1.052156452988993</v>
       </c>
       <c r="F25">
-        <v>1.037751577592749</v>
+        <v>1.067653053767672</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056825818483305</v>
+        <v>1.051366113430412</v>
       </c>
       <c r="J25">
-        <v>1.044211756982797</v>
+        <v>1.061305412576682</v>
       </c>
       <c r="K25">
-        <v>1.049196021896475</v>
+        <v>1.06246055325161</v>
       </c>
       <c r="L25">
-        <v>1.035790253621859</v>
+        <v>1.055158450506854</v>
       </c>
       <c r="M25">
-        <v>1.049790810501649</v>
+        <v>1.070608731483715</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057552590131079</v>
+        <v>1.029257958178521</v>
       </c>
       <c r="D2">
-        <v>1.060863525316217</v>
+        <v>1.044207543066317</v>
       </c>
       <c r="E2">
-        <v>1.053643488690419</v>
+        <v>1.030967604244753</v>
       </c>
       <c r="F2">
-        <v>1.069306891305746</v>
+        <v>1.045929056098547</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051976358614207</v>
+        <v>1.060603644905048</v>
       </c>
       <c r="J2">
-        <v>1.06254841701045</v>
+        <v>1.050597446769031</v>
       </c>
       <c r="K2">
-        <v>1.063589147592431</v>
+        <v>1.055083526620473</v>
       </c>
       <c r="L2">
-        <v>1.056388890393098</v>
+        <v>1.042011732500258</v>
       </c>
       <c r="M2">
-        <v>1.072009749352477</v>
+        <v>1.056783566464485</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058801790855001</v>
+        <v>1.035483857851195</v>
       </c>
       <c r="D3">
-        <v>1.061866529510889</v>
+        <v>1.049148051277298</v>
       </c>
       <c r="E3">
-        <v>1.054722483998048</v>
+        <v>1.036164774478004</v>
       </c>
       <c r="F3">
-        <v>1.070507465402748</v>
+        <v>1.051658531394423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052416036808772</v>
+        <v>1.063220531600569</v>
       </c>
       <c r="J3">
-        <v>1.063448691681089</v>
+        <v>1.055051813323794</v>
       </c>
       <c r="K3">
-        <v>1.064406184900866</v>
+        <v>1.059188444540721</v>
       </c>
       <c r="L3">
-        <v>1.057280290439264</v>
+        <v>1.046354921931393</v>
       </c>
       <c r="M3">
-        <v>1.07302551511633</v>
+        <v>1.061670493613535</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059609601515911</v>
+        <v>1.039408997131115</v>
       </c>
       <c r="D4">
-        <v>1.062515043672138</v>
+        <v>1.052265307896286</v>
       </c>
       <c r="E4">
-        <v>1.05542034430982</v>
+        <v>1.039445714855938</v>
       </c>
       <c r="F4">
-        <v>1.071284212715246</v>
+        <v>1.055276693911495</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052698965749616</v>
+        <v>1.064859133171147</v>
       </c>
       <c r="J4">
-        <v>1.06403019862639</v>
+        <v>1.057855651406222</v>
       </c>
       <c r="K4">
-        <v>1.064933753438698</v>
+        <v>1.061771348048617</v>
       </c>
       <c r="L4">
-        <v>1.057856169056119</v>
+        <v>1.049090279554902</v>
       </c>
       <c r="M4">
-        <v>1.073682104331751</v>
+        <v>1.064750791238898</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059949086695822</v>
+        <v>1.041035520047942</v>
       </c>
       <c r="D5">
-        <v>1.062787561587332</v>
+        <v>1.053557586136792</v>
       </c>
       <c r="E5">
-        <v>1.055713649400142</v>
+        <v>1.040806274800633</v>
       </c>
       <c r="F5">
-        <v>1.071610734183192</v>
+        <v>1.056777390671372</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052817533617572</v>
+        <v>1.065535409413937</v>
       </c>
       <c r="J5">
-        <v>1.064274419007901</v>
+        <v>1.05901641288102</v>
       </c>
       <c r="K5">
-        <v>1.065155279148803</v>
+        <v>1.06284040097505</v>
       </c>
       <c r="L5">
-        <v>1.05809805050638</v>
+        <v>1.050223043343654</v>
       </c>
       <c r="M5">
-        <v>1.073957973561703</v>
+        <v>1.066027004659743</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06000608088409</v>
+        <v>1.041307268328648</v>
       </c>
       <c r="D6">
-        <v>1.062833311699996</v>
+        <v>1.053773520391588</v>
       </c>
       <c r="E6">
-        <v>1.055762892242888</v>
+        <v>1.041033643892407</v>
       </c>
       <c r="F6">
-        <v>1.071665557274681</v>
+        <v>1.057028196353595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05283741969458</v>
+        <v>1.065648234780656</v>
       </c>
       <c r="J6">
-        <v>1.064315410358249</v>
+        <v>1.059210278365327</v>
       </c>
       <c r="K6">
-        <v>1.065192458845241</v>
+        <v>1.063018935041015</v>
       </c>
       <c r="L6">
-        <v>1.058138650732802</v>
+        <v>1.050412253296936</v>
       </c>
       <c r="M6">
-        <v>1.074004283835238</v>
+        <v>1.066240211209355</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059614138195502</v>
+        <v>1.039430822091808</v>
       </c>
       <c r="D7">
-        <v>1.062518685529498</v>
+        <v>1.052282645894391</v>
       </c>
       <c r="E7">
-        <v>1.055424263760935</v>
+        <v>1.039463967270153</v>
       </c>
       <c r="F7">
-        <v>1.071288575799492</v>
+        <v>1.055296825128894</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052700551533395</v>
+        <v>1.064868218443678</v>
       </c>
       <c r="J7">
-        <v>1.064033462872215</v>
+        <v>1.057871231149804</v>
       </c>
       <c r="K7">
-        <v>1.064936714512017</v>
+        <v>1.061785697858309</v>
       </c>
       <c r="L7">
-        <v>1.057859401942217</v>
+        <v>1.049105482128218</v>
       </c>
       <c r="M7">
-        <v>1.073685791139897</v>
+        <v>1.064767916623904</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0579748696789</v>
+        <v>1.031384168896532</v>
       </c>
       <c r="D8">
-        <v>1.061202598985294</v>
+        <v>1.045894210287737</v>
       </c>
       <c r="E8">
-        <v>1.05400820783536</v>
+        <v>1.032741533492523</v>
       </c>
       <c r="F8">
-        <v>1.069712653702173</v>
+        <v>1.047884434053088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052125276030923</v>
+        <v>1.061499673837878</v>
       </c>
       <c r="J8">
-        <v>1.06285288352938</v>
+        <v>1.052119563805771</v>
       </c>
       <c r="K8">
-        <v>1.0638654997242</v>
+        <v>1.056486430241195</v>
       </c>
       <c r="L8">
-        <v>1.056690333990443</v>
+        <v>1.043495537725617</v>
       </c>
       <c r="M8">
-        <v>1.072353173805439</v>
+        <v>1.058452612517147</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.055082276726819</v>
+        <v>1.016356317162199</v>
       </c>
       <c r="D9">
-        <v>1.058879617230986</v>
+        <v>1.03398677945147</v>
       </c>
       <c r="E9">
-        <v>1.051510397225224</v>
+        <v>1.020225173199904</v>
       </c>
       <c r="F9">
-        <v>1.066934792788141</v>
+        <v>1.034092347039644</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051099483141501</v>
+        <v>1.055120411164556</v>
       </c>
       <c r="J9">
-        <v>1.060764580479795</v>
+        <v>1.04134442464501</v>
       </c>
       <c r="K9">
-        <v>1.061969321715878</v>
+        <v>1.046551502040215</v>
       </c>
       <c r="L9">
-        <v>1.054623194613806</v>
+        <v>1.032998417509841</v>
       </c>
       <c r="M9">
-        <v>1.069999653091789</v>
+        <v>1.046655497302983</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053151028688239</v>
+        <v>1.00568049730853</v>
       </c>
       <c r="D10">
-        <v>1.057328267207135</v>
+        <v>1.025549031383481</v>
       </c>
       <c r="E10">
-        <v>1.049843376418913</v>
+        <v>1.011364629902842</v>
       </c>
       <c r="F10">
-        <v>1.065082169017708</v>
+        <v>1.024333840688708</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050407436042756</v>
+        <v>1.050531802674677</v>
       </c>
       <c r="J10">
-        <v>1.059366911386689</v>
+        <v>1.033670537181589</v>
       </c>
       <c r="K10">
-        <v>1.060699354029712</v>
+        <v>1.039471819825325</v>
       </c>
       <c r="L10">
-        <v>1.053240232595083</v>
+        <v>1.025531680002254</v>
       </c>
       <c r="M10">
-        <v>1.068426979996791</v>
+        <v>1.03827721324652</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052314062191992</v>
+        <v>1.000879901392877</v>
       </c>
       <c r="D11">
-        <v>1.056655854459434</v>
+        <v>1.021761208693851</v>
       </c>
       <c r="E11">
-        <v>1.04912108336041</v>
+        <v>1.007388944627959</v>
       </c>
       <c r="F11">
-        <v>1.064279764697687</v>
+        <v>1.019956246997</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050105816672859</v>
+        <v>1.048455743187001</v>
       </c>
       <c r="J11">
-        <v>1.058760383944182</v>
+        <v>1.030216121196462</v>
       </c>
       <c r="K11">
-        <v>1.060148035291061</v>
+        <v>1.036284086671744</v>
       </c>
       <c r="L11">
-        <v>1.052640216845454</v>
+        <v>1.022172848698434</v>
       </c>
       <c r="M11">
-        <v>1.067745102018123</v>
+        <v>1.034511381682582</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052003063514989</v>
+        <v>0.9990679176617008</v>
       </c>
       <c r="D12">
-        <v>1.056405988105176</v>
+        <v>1.020332577606519</v>
       </c>
       <c r="E12">
-        <v>1.048852719939243</v>
+        <v>1.005889737685218</v>
       </c>
       <c r="F12">
-        <v>1.063981682561399</v>
+        <v>1.018305613426325</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049993486310333</v>
+        <v>1.047670299201943</v>
       </c>
       <c r="J12">
-        <v>1.058534890994112</v>
+        <v>1.028911777338021</v>
       </c>
       <c r="K12">
-        <v>1.059943036539346</v>
+        <v>1.035080336505074</v>
       </c>
       <c r="L12">
-        <v>1.052417164311866</v>
+        <v>1.020904962878333</v>
       </c>
       <c r="M12">
-        <v>1.067491684669192</v>
+        <v>1.0330903137579</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052069778911977</v>
+        <v>0.9994579350518076</v>
       </c>
       <c r="D13">
-        <v>1.056459589948283</v>
+        <v>1.020640029975591</v>
       </c>
       <c r="E13">
-        <v>1.048910288080421</v>
+        <v>1.006212366108318</v>
       </c>
       <c r="F13">
-        <v>1.064045623745112</v>
+        <v>1.018660823209607</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050017594946793</v>
+        <v>1.047839442440449</v>
       </c>
       <c r="J13">
-        <v>1.058583269158117</v>
+        <v>1.029192548740557</v>
       </c>
       <c r="K13">
-        <v>1.059987019201783</v>
+        <v>1.035339458559193</v>
       </c>
       <c r="L13">
-        <v>1.052465018014842</v>
+        <v>1.021177869558413</v>
       </c>
       <c r="M13">
-        <v>1.067546049809799</v>
+        <v>1.033396171905385</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052288357249788</v>
+        <v>1.000730723287329</v>
       </c>
       <c r="D14">
-        <v>1.056635202527371</v>
+        <v>1.021643568779868</v>
       </c>
       <c r="E14">
-        <v>1.04909890183007</v>
+        <v>1.007265487582389</v>
       </c>
       <c r="F14">
-        <v>1.064255125832042</v>
+        <v>1.019820317705591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050096537445498</v>
+        <v>1.048391115498988</v>
       </c>
       <c r="J14">
-        <v>1.058741748753042</v>
+        <v>1.03010874553964</v>
       </c>
       <c r="K14">
-        <v>1.060131094415708</v>
+        <v>1.036184994017713</v>
       </c>
       <c r="L14">
-        <v>1.052621782936775</v>
+        <v>1.022068466793104</v>
       </c>
       <c r="M14">
-        <v>1.067724157279264</v>
+        <v>1.03439437954428</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052423015628177</v>
+        <v>1.001511043437077</v>
       </c>
       <c r="D15">
-        <v>1.056743389615791</v>
+        <v>1.02225896387078</v>
       </c>
       <c r="E15">
-        <v>1.049215103430049</v>
+        <v>1.007911324403885</v>
       </c>
       <c r="F15">
-        <v>1.064384202475688</v>
+        <v>1.020531405373125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050145137329851</v>
+        <v>1.048729095460188</v>
       </c>
       <c r="J15">
-        <v>1.058839366474839</v>
+        <v>1.030670386784263</v>
       </c>
       <c r="K15">
-        <v>1.060219835438748</v>
+        <v>1.036703305967621</v>
       </c>
       <c r="L15">
-        <v>1.052718347069312</v>
+        <v>1.022614463866847</v>
       </c>
       <c r="M15">
-        <v>1.067833876880447</v>
+        <v>1.035006408411089</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053206559869737</v>
+        <v>1.005995174513338</v>
       </c>
       <c r="D16">
-        <v>1.057372878785883</v>
+        <v>1.025797464200037</v>
       </c>
       <c r="E16">
-        <v>1.049891302707823</v>
+        <v>1.011625423341409</v>
       </c>
       <c r="F16">
-        <v>1.065135417396768</v>
+        <v>1.024621017334232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050427412157218</v>
+        <v>1.050667629988559</v>
       </c>
       <c r="J16">
-        <v>1.059407136458081</v>
+        <v>1.033896902664143</v>
       </c>
       <c r="K16">
-        <v>1.060735913274969</v>
+        <v>1.039680694641272</v>
       </c>
       <c r="L16">
-        <v>1.053280028540301</v>
+        <v>1.025751831609943</v>
       </c>
       <c r="M16">
-        <v>1.068472214833849</v>
+        <v>1.038524104049506</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053697860426766</v>
+        <v>1.008758906963186</v>
       </c>
       <c r="D17">
-        <v>1.05776756049454</v>
+        <v>1.027980124642286</v>
       </c>
       <c r="E17">
-        <v>1.050315339393956</v>
+        <v>1.013916898788192</v>
       </c>
       <c r="F17">
-        <v>1.065606577757963</v>
+        <v>1.027144421710248</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050603950481245</v>
+        <v>1.051859137993651</v>
       </c>
       <c r="J17">
-        <v>1.059762926599858</v>
+        <v>1.035884605163945</v>
       </c>
       <c r="K17">
-        <v>1.06105925524127</v>
+        <v>1.041514724075999</v>
       </c>
       <c r="L17">
-        <v>1.053632038014998</v>
+        <v>1.027685236481229</v>
       </c>
       <c r="M17">
-        <v>1.06887238477121</v>
+        <v>1.040692681027225</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053984358166449</v>
+        <v>1.010353934058312</v>
       </c>
       <c r="D18">
-        <v>1.057997707344724</v>
+        <v>1.029240392053648</v>
       </c>
       <c r="E18">
-        <v>1.05056262838806</v>
+        <v>1.015240179550277</v>
       </c>
       <c r="F18">
-        <v>1.065881377919235</v>
+        <v>1.028601732911786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050706733427319</v>
+        <v>1.052545587622822</v>
       </c>
       <c r="J18">
-        <v>1.059970325035991</v>
+        <v>1.037031409254572</v>
       </c>
       <c r="K18">
-        <v>1.06124771880737</v>
+        <v>1.042572789932045</v>
       </c>
       <c r="L18">
-        <v>1.053837245082009</v>
+        <v>1.02880093266979</v>
       </c>
       <c r="M18">
-        <v>1.069105710428633</v>
+        <v>1.041944374286943</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05408203479444</v>
+        <v>1.010894971994551</v>
       </c>
       <c r="D19">
-        <v>1.058076170623507</v>
+        <v>1.029667975643592</v>
       </c>
       <c r="E19">
-        <v>1.05064694007434</v>
+        <v>1.015689173792455</v>
       </c>
       <c r="F19">
-        <v>1.065975074405156</v>
+        <v>1.029096221083283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050741747758022</v>
+        <v>1.052778227290529</v>
       </c>
       <c r="J19">
-        <v>1.060041020909584</v>
+        <v>1.037420346212495</v>
       </c>
       <c r="K19">
-        <v>1.061311956946805</v>
+        <v>1.042931617942206</v>
       </c>
       <c r="L19">
-        <v>1.053907196097113</v>
+        <v>1.029179356154237</v>
       </c>
       <c r="M19">
-        <v>1.069185253810992</v>
+        <v>1.04236897449604</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053645155747605</v>
+        <v>1.008464158679441</v>
       </c>
       <c r="D20">
-        <v>1.057725221549868</v>
+        <v>1.027747284446464</v>
       </c>
       <c r="E20">
-        <v>1.050269848883253</v>
+        <v>1.013672431523173</v>
       </c>
       <c r="F20">
-        <v>1.065556028767725</v>
+        <v>1.026875201137664</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05058502913547</v>
+        <v>1.051732189730946</v>
       </c>
       <c r="J20">
-        <v>1.059724766934607</v>
+        <v>1.03567265567937</v>
       </c>
       <c r="K20">
-        <v>1.061024577824758</v>
+        <v>1.041319168647272</v>
       </c>
       <c r="L20">
-        <v>1.05359428254804</v>
+        <v>1.027479053911146</v>
       </c>
       <c r="M20">
-        <v>1.068829459309019</v>
+        <v>1.040461389318666</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05222399449766</v>
+        <v>1.000356732676793</v>
       </c>
       <c r="D21">
-        <v>1.05658349184026</v>
+        <v>1.021348662490387</v>
       </c>
       <c r="E21">
-        <v>1.049043361776632</v>
+        <v>1.006956003035558</v>
       </c>
       <c r="F21">
-        <v>1.064193433632469</v>
+        <v>1.019479569518775</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050073299014656</v>
+        <v>1.048229064124035</v>
       </c>
       <c r="J21">
-        <v>1.058695086046714</v>
+        <v>1.029839546611921</v>
       </c>
       <c r="K21">
-        <v>1.060088673790931</v>
+        <v>1.035936559622896</v>
       </c>
       <c r="L21">
-        <v>1.052575624559241</v>
+        <v>1.021806779379739</v>
       </c>
       <c r="M21">
-        <v>1.067671712882853</v>
+        <v>1.034101060212995</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051329804021973</v>
+        <v>0.9950912700449995</v>
       </c>
       <c r="D22">
-        <v>1.055865048080422</v>
+        <v>1.017199388699496</v>
       </c>
       <c r="E22">
-        <v>1.048271805191484</v>
+        <v>1.002602266628285</v>
       </c>
       <c r="F22">
-        <v>1.0633365212464</v>
+        <v>1.014686309922638</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049749843679928</v>
+        <v>1.045943236925846</v>
       </c>
       <c r="J22">
-        <v>1.058046517006922</v>
+        <v>1.026048434355006</v>
       </c>
       <c r="K22">
-        <v>1.059498992220822</v>
+        <v>1.032437652719528</v>
       </c>
       <c r="L22">
-        <v>1.051934111576795</v>
+        <v>1.018122347776571</v>
       </c>
       <c r="M22">
-        <v>1.066942995051001</v>
+        <v>1.029972336437062</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051803894054778</v>
+        <v>0.9978992774386065</v>
       </c>
       <c r="D23">
-        <v>1.056245965578085</v>
+        <v>1.019411502149167</v>
       </c>
       <c r="E23">
-        <v>1.048680862054109</v>
+        <v>1.004923237306379</v>
       </c>
       <c r="F23">
-        <v>1.063790806010913</v>
+        <v>1.017241526328287</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049921476014495</v>
+        <v>1.047163218631751</v>
       </c>
       <c r="J23">
-        <v>1.058390447160204</v>
+        <v>1.028070416472579</v>
       </c>
       <c r="K23">
-        <v>1.059811711911694</v>
+        <v>1.034303836617602</v>
       </c>
       <c r="L23">
-        <v>1.052274289237208</v>
+        <v>1.020087224472273</v>
       </c>
       <c r="M23">
-        <v>1.067329378439953</v>
+        <v>1.032173905166011</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053668970938334</v>
+        <v>1.008597395155922</v>
       </c>
       <c r="D24">
-        <v>1.057744352895255</v>
+        <v>1.027852534481717</v>
       </c>
       <c r="E24">
-        <v>1.050290404224228</v>
+        <v>1.013782936735954</v>
       </c>
       <c r="F24">
-        <v>1.065578869741457</v>
+        <v>1.026996895153953</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050593579460739</v>
+        <v>1.051789578500548</v>
       </c>
       <c r="J24">
-        <v>1.05974201004005</v>
+        <v>1.03576846532492</v>
       </c>
       <c r="K24">
-        <v>1.06104024747785</v>
+        <v>1.041407567762985</v>
       </c>
       <c r="L24">
-        <v>1.053611342970953</v>
+        <v>1.027572256001636</v>
       </c>
       <c r="M24">
-        <v>1.068848855745557</v>
+        <v>1.040565940767046</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055830571778574</v>
+        <v>1.020350377476142</v>
       </c>
       <c r="D25">
-        <v>1.059480631872241</v>
+        <v>1.037148258806534</v>
       </c>
       <c r="E25">
-        <v>1.052156452988993</v>
+        <v>1.023546796518086</v>
       </c>
       <c r="F25">
-        <v>1.067653053767672</v>
+        <v>1.037751577592751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051366113430412</v>
+        <v>1.056825818483306</v>
       </c>
       <c r="J25">
-        <v>1.061305412576682</v>
+        <v>1.044211756982798</v>
       </c>
       <c r="K25">
-        <v>1.06246055325161</v>
+        <v>1.049196021896476</v>
       </c>
       <c r="L25">
-        <v>1.055158450506854</v>
+        <v>1.03579025362186</v>
       </c>
       <c r="M25">
-        <v>1.070608731483715</v>
+        <v>1.04979081050165</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029257958178521</v>
+        <v>0.9957226113252583</v>
       </c>
       <c r="D2">
-        <v>1.044207543066317</v>
+        <v>1.01736811143335</v>
       </c>
       <c r="E2">
-        <v>1.030967604244753</v>
+        <v>1.00193576655751</v>
       </c>
       <c r="F2">
-        <v>1.045929056098547</v>
+        <v>1.01476929359678</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060603644905048</v>
+        <v>1.045330597315064</v>
       </c>
       <c r="J2">
-        <v>1.050597446769031</v>
+        <v>1.018032015392794</v>
       </c>
       <c r="K2">
-        <v>1.055083526620473</v>
+        <v>1.028590669636117</v>
       </c>
       <c r="L2">
-        <v>1.042011732500258</v>
+        <v>1.013368198794483</v>
       </c>
       <c r="M2">
-        <v>1.056783566464485</v>
+        <v>1.026026632999111</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.02917063402748</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031286230782053</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035483857851195</v>
+        <v>1.001825990753297</v>
       </c>
       <c r="D3">
-        <v>1.049148051277298</v>
+        <v>1.021499972000956</v>
       </c>
       <c r="E3">
-        <v>1.036164774478004</v>
+        <v>1.007014636764834</v>
       </c>
       <c r="F3">
-        <v>1.051658531394423</v>
+        <v>1.018820177278246</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063220531600569</v>
+        <v>1.046931570915659</v>
       </c>
       <c r="J3">
-        <v>1.055051813323794</v>
+        <v>1.022267000891522</v>
       </c>
       <c r="K3">
-        <v>1.059188444540721</v>
+        <v>1.031864953233095</v>
       </c>
       <c r="L3">
-        <v>1.046354921931393</v>
+        <v>1.01755854393491</v>
       </c>
       <c r="M3">
-        <v>1.061670493613535</v>
+        <v>1.029217783014405</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031696251237601</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033598795458154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039408997131115</v>
+        <v>1.005666815789329</v>
       </c>
       <c r="D4">
-        <v>1.052265307896286</v>
+        <v>1.024101588982657</v>
       </c>
       <c r="E4">
-        <v>1.039445714855938</v>
+        <v>1.010215525982096</v>
       </c>
       <c r="F4">
-        <v>1.055276693911495</v>
+        <v>1.021383362348289</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064859133171147</v>
+        <v>1.047922772413465</v>
       </c>
       <c r="J4">
-        <v>1.057855651406222</v>
+        <v>1.024926666312348</v>
       </c>
       <c r="K4">
-        <v>1.061771348048617</v>
+        <v>1.033917577476468</v>
       </c>
       <c r="L4">
-        <v>1.049090279554902</v>
+        <v>1.020192202487081</v>
       </c>
       <c r="M4">
-        <v>1.064750791238898</v>
+        <v>1.031230381338114</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033289105827329</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035051106665654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041035520047942</v>
+        <v>1.007264713582568</v>
       </c>
       <c r="D5">
-        <v>1.053557586136792</v>
+        <v>1.025186659080399</v>
       </c>
       <c r="E5">
-        <v>1.040806274800633</v>
+        <v>1.011550334069723</v>
       </c>
       <c r="F5">
-        <v>1.056777390671372</v>
+        <v>1.022451096494536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065535409413937</v>
+        <v>1.048333104776069</v>
       </c>
       <c r="J5">
-        <v>1.05901641288102</v>
+        <v>1.026034074149991</v>
       </c>
       <c r="K5">
-        <v>1.06284040097505</v>
+        <v>1.034773092182971</v>
       </c>
       <c r="L5">
-        <v>1.050223043343654</v>
+        <v>1.021290171755976</v>
       </c>
       <c r="M5">
-        <v>1.066027004659743</v>
+        <v>1.032067900137979</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033951952210006</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035663250615369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041307268328648</v>
+        <v>1.007541300442562</v>
       </c>
       <c r="D6">
-        <v>1.053773520391588</v>
+        <v>1.025377481299991</v>
       </c>
       <c r="E6">
-        <v>1.041033643892407</v>
+        <v>1.011783947726245</v>
       </c>
       <c r="F6">
-        <v>1.057028196353595</v>
+        <v>1.022633807969029</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065648234780656</v>
+        <v>1.048406277706651</v>
       </c>
       <c r="J6">
-        <v>1.059210278365327</v>
+        <v>1.026228427508077</v>
       </c>
       <c r="K6">
-        <v>1.063018935041015</v>
+        <v>1.034925341399553</v>
       </c>
       <c r="L6">
-        <v>1.050412253296936</v>
+        <v>1.021483996670156</v>
       </c>
       <c r="M6">
-        <v>1.066240211209355</v>
+        <v>1.032211984547682</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034065986398893</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035779699592087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039430822091808</v>
+        <v>1.005714648716488</v>
       </c>
       <c r="D7">
-        <v>1.052282645894391</v>
+        <v>1.024142100194302</v>
       </c>
       <c r="E7">
-        <v>1.039463967270153</v>
+        <v>1.010262352152495</v>
       </c>
       <c r="F7">
-        <v>1.055296825128894</v>
+        <v>1.021409085984395</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064868218443678</v>
+        <v>1.047941490864899</v>
       </c>
       <c r="J7">
-        <v>1.057871231149804</v>
+        <v>1.024967256669634</v>
       </c>
       <c r="K7">
-        <v>1.061785697858309</v>
+        <v>1.033954721086995</v>
       </c>
       <c r="L7">
-        <v>1.049105482128218</v>
+        <v>1.02023551719439</v>
       </c>
       <c r="M7">
-        <v>1.064767916623904</v>
+        <v>1.031252893269771</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033306922692237</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035097609810969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031384168896532</v>
+        <v>0.9978426502304386</v>
       </c>
       <c r="D8">
-        <v>1.045894210287737</v>
+        <v>1.018813031200099</v>
       </c>
       <c r="E8">
-        <v>1.032741533492523</v>
+        <v>1.003708188023213</v>
       </c>
       <c r="F8">
-        <v>1.047884434053088</v>
+        <v>1.016165492225773</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061499673837878</v>
+        <v>1.045897981658057</v>
       </c>
       <c r="J8">
-        <v>1.052119563805771</v>
+        <v>1.01951361823841</v>
       </c>
       <c r="K8">
-        <v>1.056486430241195</v>
+        <v>1.029744058158114</v>
       </c>
       <c r="L8">
-        <v>1.043495537725617</v>
+        <v>1.01483816274864</v>
       </c>
       <c r="M8">
-        <v>1.058452612517147</v>
+        <v>1.02713085491749</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030044565113297</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032124906412617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016356317162199</v>
+        <v>0.9830370511128159</v>
       </c>
       <c r="D9">
-        <v>1.03398677945147</v>
+        <v>1.008793799786117</v>
       </c>
       <c r="E9">
-        <v>1.020225173199904</v>
+        <v>0.9914110937062928</v>
       </c>
       <c r="F9">
-        <v>1.034092347039644</v>
+        <v>1.006432387093894</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055120411164556</v>
+        <v>1.041916195574344</v>
       </c>
       <c r="J9">
-        <v>1.04134442464501</v>
+        <v>1.009203370719098</v>
       </c>
       <c r="K9">
-        <v>1.046551502040215</v>
+        <v>1.021745796895638</v>
       </c>
       <c r="L9">
-        <v>1.032998417509841</v>
+        <v>1.004645074122642</v>
       </c>
       <c r="M9">
-        <v>1.046655497302983</v>
+        <v>1.019421958297114</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.023943373056587</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026466237252072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00568049730853</v>
+        <v>0.9727675235791484</v>
       </c>
       <c r="D10">
-        <v>1.025549031383481</v>
+        <v>1.001882324758939</v>
       </c>
       <c r="E10">
-        <v>1.011364629902842</v>
+        <v>0.9829626476848434</v>
       </c>
       <c r="F10">
-        <v>1.024333840688708</v>
+        <v>0.9999922616294614</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050531802674677</v>
+        <v>1.039103600848153</v>
       </c>
       <c r="J10">
-        <v>1.033670537181589</v>
+        <v>1.00210487586138</v>
       </c>
       <c r="K10">
-        <v>1.039471819825325</v>
+        <v>1.016217676217247</v>
       </c>
       <c r="L10">
-        <v>1.025531680002254</v>
+        <v>0.9976464846076459</v>
       </c>
       <c r="M10">
-        <v>1.03827721324652</v>
+        <v>1.014361655796375</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.019990994969807</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022574445235503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000879901392877</v>
+        <v>0.9704439338650676</v>
       </c>
       <c r="D11">
-        <v>1.021761208693851</v>
+        <v>1.000473481582999</v>
       </c>
       <c r="E11">
-        <v>1.007388944627959</v>
+        <v>0.9814444985145847</v>
       </c>
       <c r="F11">
-        <v>1.019956246997</v>
+        <v>1.000352912928872</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048455743187001</v>
+        <v>1.038676517868597</v>
       </c>
       <c r="J11">
-        <v>1.030216121196462</v>
+        <v>1.001100152859233</v>
       </c>
       <c r="K11">
-        <v>1.036284086671744</v>
+        <v>1.015386474255463</v>
       </c>
       <c r="L11">
-        <v>1.022172848698434</v>
+        <v>0.996725038430186</v>
       </c>
       <c r="M11">
-        <v>1.034511381682582</v>
+        <v>1.015268176896456</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.021153530444244</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022020152720085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9990679176617008</v>
+        <v>0.9703590867194118</v>
       </c>
       <c r="D12">
-        <v>1.020332577606519</v>
+        <v>1.000524451916608</v>
       </c>
       <c r="E12">
-        <v>1.005889737685218</v>
+        <v>0.9816638596359053</v>
       </c>
       <c r="F12">
-        <v>1.018305613426325</v>
+        <v>1.00157068040437</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047670299201943</v>
+        <v>1.038806282163788</v>
       </c>
       <c r="J12">
-        <v>1.028911777338021</v>
+        <v>1.001473123789888</v>
       </c>
       <c r="K12">
-        <v>1.035080336505074</v>
+        <v>1.0156416111483</v>
       </c>
       <c r="L12">
-        <v>1.020904962878333</v>
+        <v>0.9971509891403609</v>
       </c>
       <c r="M12">
-        <v>1.0330903137579</v>
+        <v>1.016667850396512</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.02259262183441</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022200548722526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9994579350518076</v>
+        <v>0.9720134141110318</v>
       </c>
       <c r="D13">
-        <v>1.020640029975591</v>
+        <v>1.001725066814172</v>
       </c>
       <c r="E13">
-        <v>1.006212366108318</v>
+        <v>0.9832572436921366</v>
       </c>
       <c r="F13">
-        <v>1.018660823209607</v>
+        <v>1.003556443354536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047839442440449</v>
+        <v>1.039390614678281</v>
       </c>
       <c r="J13">
-        <v>1.029192548740557</v>
+        <v>1.002954178269475</v>
       </c>
       <c r="K13">
-        <v>1.035339458559193</v>
+        <v>1.01677536862111</v>
       </c>
       <c r="L13">
-        <v>1.021177869558413</v>
+        <v>0.9986672561134675</v>
       </c>
       <c r="M13">
-        <v>1.033396171905385</v>
+        <v>1.018572017165346</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.024378741620622</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.022999643854701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000730723287329</v>
+        <v>0.973925274083185</v>
       </c>
       <c r="D14">
-        <v>1.021643568779868</v>
+        <v>1.00306376316763</v>
       </c>
       <c r="E14">
-        <v>1.007265487582389</v>
+        <v>0.9849638367848885</v>
       </c>
       <c r="F14">
-        <v>1.019820317705591</v>
+        <v>1.005255170255827</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048391115498988</v>
+        <v>1.039994016661624</v>
       </c>
       <c r="J14">
-        <v>1.03010874553964</v>
+        <v>1.004461784331733</v>
       </c>
       <c r="K14">
-        <v>1.036184994017713</v>
+        <v>1.0179450251171</v>
       </c>
       <c r="L14">
-        <v>1.022068466793104</v>
+        <v>1.000192344719243</v>
       </c>
       <c r="M14">
-        <v>1.03439437954428</v>
+        <v>1.020095497356255</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.025758290078308</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.02382810245434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001511043437077</v>
+        <v>0.9747980328988031</v>
       </c>
       <c r="D15">
-        <v>1.02225896387078</v>
+        <v>1.003662969676211</v>
       </c>
       <c r="E15">
-        <v>1.007911324403885</v>
+        <v>0.9857075791614561</v>
       </c>
       <c r="F15">
-        <v>1.020531405373125</v>
+        <v>1.005893050129766</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048729095460188</v>
+        <v>1.040251641111679</v>
       </c>
       <c r="J15">
-        <v>1.030670386784263</v>
+        <v>1.005100477300377</v>
       </c>
       <c r="K15">
-        <v>1.036703305967621</v>
+        <v>1.018444591316275</v>
       </c>
       <c r="L15">
-        <v>1.022614463866847</v>
+        <v>1.000830700056508</v>
       </c>
       <c r="M15">
-        <v>1.035006408411089</v>
+        <v>1.020633366531595</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.026221322480892</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024187282829521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005995174513338</v>
+        <v>0.9787838782153403</v>
       </c>
       <c r="D16">
-        <v>1.025797464200037</v>
+        <v>1.006325931954352</v>
       </c>
       <c r="E16">
-        <v>1.011625423341409</v>
+        <v>0.9889245294903003</v>
       </c>
       <c r="F16">
-        <v>1.024621017334232</v>
+        <v>1.008251304206857</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050667629988559</v>
+        <v>1.041331470506135</v>
       </c>
       <c r="J16">
-        <v>1.033896902664143</v>
+        <v>1.007785726418401</v>
       </c>
       <c r="K16">
-        <v>1.039680694641272</v>
+        <v>1.020545556479853</v>
       </c>
       <c r="L16">
-        <v>1.025751831609943</v>
+        <v>1.00345940104684</v>
       </c>
       <c r="M16">
-        <v>1.038524104049506</v>
+        <v>1.022436915153142</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.02760773562815</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.02567598215279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008758906963186</v>
+        <v>0.9808610683453302</v>
       </c>
       <c r="D17">
-        <v>1.027980124642286</v>
+        <v>1.00768377383334</v>
       </c>
       <c r="E17">
-        <v>1.013916898788192</v>
+        <v>0.9905211790849608</v>
       </c>
       <c r="F17">
-        <v>1.027144421710248</v>
+        <v>1.009183847200599</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051859137993651</v>
+        <v>1.041848102184523</v>
       </c>
       <c r="J17">
-        <v>1.035884605163945</v>
+        <v>1.009075128527435</v>
       </c>
       <c r="K17">
-        <v>1.041514724075999</v>
+        <v>1.021558406739971</v>
       </c>
       <c r="L17">
-        <v>1.027685236481229</v>
+        <v>1.004697472963719</v>
       </c>
       <c r="M17">
-        <v>1.040692681027225</v>
+        <v>1.023032743908553</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.027948345790124</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026394739612889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010353934058312</v>
+        <v>0.9813941563696571</v>
       </c>
       <c r="D18">
-        <v>1.029240392053648</v>
+        <v>1.007968268982868</v>
       </c>
       <c r="E18">
-        <v>1.015240179550277</v>
+        <v>0.9907705594061254</v>
       </c>
       <c r="F18">
-        <v>1.028601732911786</v>
+        <v>1.008780876553617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052545587622822</v>
+        <v>1.041891625945035</v>
       </c>
       <c r="J18">
-        <v>1.037031409254572</v>
+        <v>1.009178977872636</v>
       </c>
       <c r="K18">
-        <v>1.042572789932045</v>
+        <v>1.021650862768266</v>
       </c>
       <c r="L18">
-        <v>1.02880093266979</v>
+        <v>1.004750529748982</v>
       </c>
       <c r="M18">
-        <v>1.041944374286943</v>
+        <v>1.022449742658467</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027246951417531</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026448319157552</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010894971994551</v>
+        <v>0.9804987881002598</v>
       </c>
       <c r="D19">
-        <v>1.029667975643592</v>
+        <v>1.007271686794776</v>
       </c>
       <c r="E19">
-        <v>1.015689173792455</v>
+        <v>0.9897830397712425</v>
       </c>
       <c r="F19">
-        <v>1.029096221083283</v>
+        <v>1.007056375567452</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052778227290529</v>
+        <v>1.041504655550083</v>
       </c>
       <c r="J19">
-        <v>1.037420346212495</v>
+        <v>1.008180255466491</v>
       </c>
       <c r="K19">
-        <v>1.042931617942206</v>
+        <v>1.02090219449309</v>
       </c>
       <c r="L19">
-        <v>1.029179356154237</v>
+        <v>1.00371498844622</v>
       </c>
       <c r="M19">
-        <v>1.04236897449604</v>
+        <v>1.020690512341206</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.025525626767142</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025925458619711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008464158679441</v>
+        <v>0.975535459349802</v>
       </c>
       <c r="D20">
-        <v>1.027747284446464</v>
+        <v>1.003764929878721</v>
       </c>
       <c r="E20">
-        <v>1.013672431523173</v>
+        <v>0.9852616264392295</v>
       </c>
       <c r="F20">
-        <v>1.026875201137664</v>
+        <v>1.001717157939163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051732189730946</v>
+        <v>1.039884035895266</v>
       </c>
       <c r="J20">
-        <v>1.03567265567937</v>
+        <v>1.004043148070328</v>
       </c>
       <c r="K20">
-        <v>1.041319168647272</v>
+        <v>1.017741899019377</v>
       </c>
       <c r="L20">
-        <v>1.027479053911146</v>
+        <v>0.999568679439057</v>
       </c>
       <c r="M20">
-        <v>1.040461389318666</v>
+        <v>1.015729880247809</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.021063036859977</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02369495691915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000356732676793</v>
+        <v>0.9672744477456552</v>
       </c>
       <c r="D21">
-        <v>1.021348662490387</v>
+        <v>0.9981828250093907</v>
       </c>
       <c r="E21">
-        <v>1.006956003035558</v>
+        <v>0.9784050505095845</v>
       </c>
       <c r="F21">
-        <v>1.019479569518775</v>
+        <v>0.9962136278336982</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048229064124035</v>
+        <v>1.037549472806951</v>
       </c>
       <c r="J21">
-        <v>1.029839546611921</v>
+        <v>0.9982071224914397</v>
       </c>
       <c r="K21">
-        <v>1.035936559622896</v>
+        <v>1.013198706304014</v>
       </c>
       <c r="L21">
-        <v>1.021806779379739</v>
+        <v>0.9938074300755679</v>
       </c>
       <c r="M21">
-        <v>1.034101060212995</v>
+        <v>1.011267091025161</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.017489158572608</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.020485968501896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950912700449995</v>
+        <v>0.9620069293864361</v>
       </c>
       <c r="D22">
-        <v>1.017199388699496</v>
+        <v>0.9946304111679961</v>
       </c>
       <c r="E22">
-        <v>1.002602266628285</v>
+        <v>0.9740546078517894</v>
       </c>
       <c r="F22">
-        <v>1.014686309922638</v>
+        <v>0.9928472790032826</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045943236925846</v>
+        <v>1.036052205927232</v>
       </c>
       <c r="J22">
-        <v>1.026048434355006</v>
+        <v>0.9945102361457203</v>
       </c>
       <c r="K22">
-        <v>1.032437652719528</v>
+        <v>1.010308996467957</v>
       </c>
       <c r="L22">
-        <v>1.018122347776571</v>
+        <v>0.9901581857856184</v>
       </c>
       <c r="M22">
-        <v>1.029972336437062</v>
+        <v>1.008561776983385</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.015348009092692</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.018428982446459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9978992774386065</v>
+        <v>0.9647876730149479</v>
       </c>
       <c r="D23">
-        <v>1.019411502149167</v>
+        <v>0.9964975330508202</v>
       </c>
       <c r="E23">
-        <v>1.004923237306379</v>
+        <v>0.9763415366538115</v>
       </c>
       <c r="F23">
-        <v>1.017241526328287</v>
+        <v>0.9946282288523954</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047163218631751</v>
+        <v>1.03683855404089</v>
       </c>
       <c r="J23">
-        <v>1.028070416472579</v>
+        <v>0.9964547105445717</v>
       </c>
       <c r="K23">
-        <v>1.034303836617602</v>
+        <v>1.01182426673672</v>
       </c>
       <c r="L23">
-        <v>1.020087224472273</v>
+        <v>0.9920726398815414</v>
       </c>
       <c r="M23">
-        <v>1.032173905166011</v>
+        <v>1.009991559599788</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.016479626569128</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.019490545607832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008597395155922</v>
+        <v>0.9754062427135729</v>
       </c>
       <c r="D24">
-        <v>1.027852534481717</v>
+        <v>1.003652893668938</v>
       </c>
       <c r="E24">
-        <v>1.013782936735954</v>
+        <v>0.9851073820388261</v>
       </c>
       <c r="F24">
-        <v>1.026996895153953</v>
+        <v>1.001464439799336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051789578500548</v>
+        <v>1.039819029845438</v>
       </c>
       <c r="J24">
-        <v>1.03576846532492</v>
+        <v>1.003885019723346</v>
       </c>
       <c r="K24">
-        <v>1.041407567762985</v>
+        <v>1.017616162646751</v>
       </c>
       <c r="L24">
-        <v>1.027572256001636</v>
+        <v>0.9994011756227823</v>
       </c>
       <c r="M24">
-        <v>1.040565940767046</v>
+        <v>1.015465886948207</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.020812326426546</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.023578192179647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020350377476142</v>
+        <v>0.9870249118315213</v>
       </c>
       <c r="D25">
-        <v>1.037148258806534</v>
+        <v>1.011502535713862</v>
       </c>
       <c r="E25">
-        <v>1.023546796518086</v>
+        <v>0.9947308094002476</v>
       </c>
       <c r="F25">
-        <v>1.037751577592751</v>
+        <v>1.00902919254079</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056825818483306</v>
+        <v>1.043012862902301</v>
       </c>
       <c r="J25">
-        <v>1.044211756982798</v>
+        <v>1.011996970921394</v>
       </c>
       <c r="K25">
-        <v>1.049196021896476</v>
+        <v>1.023924875766039</v>
       </c>
       <c r="L25">
-        <v>1.03579025362186</v>
+        <v>1.00741147721417</v>
       </c>
       <c r="M25">
-        <v>1.04979081050165</v>
+        <v>1.021488940461268</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025579287624494</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028035986392556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_19/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9957226113252583</v>
+        <v>0.9958329814471316</v>
       </c>
       <c r="D2">
-        <v>1.01736811143335</v>
+        <v>1.017333045775984</v>
       </c>
       <c r="E2">
-        <v>1.00193576655751</v>
+        <v>1.002331707642102</v>
       </c>
       <c r="F2">
-        <v>1.01476929359678</v>
+        <v>1.014817106352773</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045330597315064</v>
+        <v>1.045312798667699</v>
       </c>
       <c r="J2">
-        <v>1.018032015392794</v>
+        <v>1.018139045692607</v>
       </c>
       <c r="K2">
-        <v>1.028590669636117</v>
+        <v>1.028556071793829</v>
       </c>
       <c r="L2">
-        <v>1.013368198794483</v>
+        <v>1.013758653376401</v>
       </c>
       <c r="M2">
-        <v>1.026026632999111</v>
+        <v>1.026073803833282</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.02917063402748</v>
+        <v>1.029207967178138</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031286230782053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031270625841786</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019372878666707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001825990753297</v>
+        <v>1.001491427597202</v>
       </c>
       <c r="D3">
-        <v>1.021499972000956</v>
+        <v>1.020996754221024</v>
       </c>
       <c r="E3">
-        <v>1.007014636764834</v>
+        <v>1.00697880967608</v>
       </c>
       <c r="F3">
-        <v>1.018820177278246</v>
+        <v>1.018675438924464</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046931570915659</v>
+        <v>1.04667586415758</v>
       </c>
       <c r="J3">
-        <v>1.022267000891522</v>
+        <v>1.021941517200521</v>
       </c>
       <c r="K3">
-        <v>1.031864953233095</v>
+        <v>1.031367845527977</v>
       </c>
       <c r="L3">
-        <v>1.01755854393491</v>
+        <v>1.01752316734842</v>
       </c>
       <c r="M3">
-        <v>1.029217783014405</v>
+        <v>1.029074812816196</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031696251237601</v>
+        <v>1.031583098497901</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033598795458154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033255858707395</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020051250561129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005666815789329</v>
+        <v>1.005058424534093</v>
       </c>
       <c r="D4">
-        <v>1.024101588982657</v>
+        <v>1.023307910675977</v>
       </c>
       <c r="E4">
-        <v>1.010215525982096</v>
+        <v>1.00991398521923</v>
       </c>
       <c r="F4">
-        <v>1.021383362348289</v>
+        <v>1.021120388638562</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047922772413465</v>
+        <v>1.047519178734637</v>
       </c>
       <c r="J4">
-        <v>1.024926666312348</v>
+        <v>1.024333614460059</v>
       </c>
       <c r="K4">
-        <v>1.033917577476468</v>
+        <v>1.033132938553749</v>
       </c>
       <c r="L4">
-        <v>1.020192202487081</v>
+        <v>1.019894211799954</v>
       </c>
       <c r="M4">
-        <v>1.031230381338114</v>
+        <v>1.030970420478305</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033289105827329</v>
+        <v>1.033083362120884</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035051106665654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034504932010313</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020474250492379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007264713582568</v>
+        <v>1.006542915148825</v>
       </c>
       <c r="D5">
-        <v>1.025186659080399</v>
+        <v>1.0242725007568</v>
       </c>
       <c r="E5">
-        <v>1.011550334069723</v>
+        <v>1.011138328579148</v>
       </c>
       <c r="F5">
-        <v>1.022451096494536</v>
+        <v>1.022139216078052</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048333104776069</v>
+        <v>1.047868103854819</v>
       </c>
       <c r="J5">
-        <v>1.026034074149991</v>
+        <v>1.025329905387225</v>
       </c>
       <c r="K5">
-        <v>1.034773092182971</v>
+        <v>1.03386906075954</v>
       </c>
       <c r="L5">
-        <v>1.021290171755976</v>
+        <v>1.0208828806609</v>
       </c>
       <c r="M5">
-        <v>1.032067900137979</v>
+        <v>1.031759494956645</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033951952210006</v>
+        <v>1.033707867900508</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035663250615369</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035033364971329</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020651312038622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007541300442562</v>
+        <v>1.006798896687801</v>
       </c>
       <c r="D6">
-        <v>1.025377481299991</v>
+        <v>1.024441818297008</v>
       </c>
       <c r="E6">
-        <v>1.011783947726245</v>
+        <v>1.011351333845441</v>
       </c>
       <c r="F6">
-        <v>1.022633807969029</v>
+        <v>1.022313043706316</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048406277706651</v>
+        <v>1.047930313546591</v>
       </c>
       <c r="J6">
-        <v>1.026228427508077</v>
+        <v>1.025504058907282</v>
       </c>
       <c r="K6">
-        <v>1.034925341399553</v>
+        <v>1.033999994666775</v>
       </c>
       <c r="L6">
-        <v>1.021483996670156</v>
+        <v>1.021056309032609</v>
       </c>
       <c r="M6">
-        <v>1.032211984547682</v>
+        <v>1.031894777665251</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034065986398893</v>
+        <v>1.033814936107308</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035779699592087</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035135613903829</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020684397462038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005714648716488</v>
+        <v>1.0050998982211</v>
       </c>
       <c r="D7">
-        <v>1.024142100194302</v>
+        <v>1.023342828697155</v>
       </c>
       <c r="E7">
-        <v>1.010262352152495</v>
+        <v>1.00995312251874</v>
       </c>
       <c r="F7">
-        <v>1.021409085984395</v>
+        <v>1.021143364840788</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047941490864899</v>
+        <v>1.047535051060314</v>
       </c>
       <c r="J7">
-        <v>1.024967256669634</v>
+        <v>1.024367998388649</v>
       </c>
       <c r="K7">
-        <v>1.033954721086995</v>
+        <v>1.033164548808611</v>
       </c>
       <c r="L7">
-        <v>1.02023551719439</v>
+        <v>1.019929926554471</v>
       </c>
       <c r="M7">
-        <v>1.031252893269771</v>
+        <v>1.030990215256437</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033306922692237</v>
+        <v>1.033099028523801</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035097609810969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034549528661192</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020486305831671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9978426502304386</v>
+        <v>0.9977928880005669</v>
       </c>
       <c r="D8">
-        <v>1.018813031200099</v>
+        <v>1.018611587529366</v>
       </c>
       <c r="E8">
-        <v>1.003708188023213</v>
+        <v>1.00394667069897</v>
       </c>
       <c r="F8">
-        <v>1.016165492225773</v>
+        <v>1.016143944912639</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045897981658057</v>
+        <v>1.045795694459932</v>
       </c>
       <c r="J8">
-        <v>1.01951361823841</v>
+        <v>1.019465308180085</v>
       </c>
       <c r="K8">
-        <v>1.029744058158114</v>
+        <v>1.029545219144865</v>
       </c>
       <c r="L8">
-        <v>1.01483816274864</v>
+        <v>1.015073445905738</v>
       </c>
       <c r="M8">
-        <v>1.02713085491749</v>
+        <v>1.027109587968904</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030044565113297</v>
+        <v>1.030027733500317</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032124906412617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031995432335284</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019617918449304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9830370511128159</v>
+        <v>0.9841112174116133</v>
       </c>
       <c r="D9">
-        <v>1.008793799786117</v>
+        <v>1.009757384740602</v>
       </c>
       <c r="E9">
-        <v>0.9914110937062928</v>
+        <v>0.9927407131455114</v>
       </c>
       <c r="F9">
-        <v>1.006432387093894</v>
+        <v>1.006898977447975</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041916195574344</v>
+        <v>1.042404232436081</v>
       </c>
       <c r="J9">
-        <v>1.009203370719098</v>
+        <v>1.010237801269333</v>
       </c>
       <c r="K9">
-        <v>1.021745796895638</v>
+        <v>1.022694114225969</v>
       </c>
       <c r="L9">
-        <v>1.004645074122642</v>
+        <v>1.00595267554132</v>
       </c>
       <c r="M9">
-        <v>1.019421958297114</v>
+        <v>1.019881106499295</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.023943373056587</v>
+        <v>1.02430676658207</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026466237252072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027147669632288</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017943674549722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9727675235791484</v>
+        <v>0.9746413713101448</v>
       </c>
       <c r="D10">
-        <v>1.001882324758939</v>
+        <v>1.003663653708534</v>
       </c>
       <c r="E10">
-        <v>0.9829626476848434</v>
+        <v>0.9850561001035185</v>
       </c>
       <c r="F10">
-        <v>0.9999922616294614</v>
+        <v>1.000807072768671</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039103600848153</v>
+        <v>1.040004293473226</v>
       </c>
       <c r="J10">
-        <v>1.00210487586138</v>
+        <v>1.0038985281753</v>
       </c>
       <c r="K10">
-        <v>1.016217676217247</v>
+        <v>1.017967073329901</v>
       </c>
       <c r="L10">
-        <v>0.9976464846076459</v>
+        <v>0.9997005171049336</v>
       </c>
       <c r="M10">
-        <v>1.014361655796375</v>
+        <v>1.015161770541121</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.019990994969807</v>
+        <v>1.020624209281879</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022574445235503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.023824025360835</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016794478608388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9704439338650676</v>
+        <v>0.9723029714004296</v>
       </c>
       <c r="D11">
-        <v>1.000473481582999</v>
+        <v>1.002288276680583</v>
       </c>
       <c r="E11">
-        <v>0.9814444985145847</v>
+        <v>0.9834427324427303</v>
       </c>
       <c r="F11">
-        <v>1.000352912928872</v>
+        <v>1.001154930900067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038676517868597</v>
+        <v>1.039593528487102</v>
       </c>
       <c r="J11">
-        <v>1.001100152859233</v>
+        <v>1.002875163266654</v>
       </c>
       <c r="K11">
-        <v>1.015386474255463</v>
+        <v>1.017167168092241</v>
       </c>
       <c r="L11">
-        <v>0.996725038430186</v>
+        <v>0.9986837984879203</v>
       </c>
       <c r="M11">
-        <v>1.015268176896456</v>
+        <v>1.016055099733274</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.021153530444244</v>
+        <v>1.021775977809478</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022020152720085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.023295065307138</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016758063271062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9703590867194118</v>
+        <v>0.9720804942903225</v>
       </c>
       <c r="D12">
-        <v>1.000524451916608</v>
+        <v>1.00223513448068</v>
       </c>
       <c r="E12">
-        <v>0.9816638596359053</v>
+        <v>0.9834697820499733</v>
       </c>
       <c r="F12">
-        <v>1.00157068040437</v>
+        <v>1.002309041361675</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038806282163788</v>
+        <v>1.039670496584899</v>
       </c>
       <c r="J12">
-        <v>1.001473123789888</v>
+        <v>1.003115330610659</v>
       </c>
       <c r="K12">
-        <v>1.0156416111483</v>
+        <v>1.017319637758329</v>
       </c>
       <c r="L12">
-        <v>0.9971509891403609</v>
+        <v>0.9989206783107417</v>
       </c>
       <c r="M12">
-        <v>1.016667850396512</v>
+        <v>1.017392137084851</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.02259262183441</v>
+        <v>1.023165324065522</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022200548722526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023402867180118</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016909657088526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9720134141110318</v>
+        <v>0.9734902883575777</v>
       </c>
       <c r="D13">
-        <v>1.001725066814172</v>
+        <v>1.00321598279838</v>
       </c>
       <c r="E13">
-        <v>0.9832572436921366</v>
+        <v>0.9847791062785878</v>
       </c>
       <c r="F13">
-        <v>1.003556443354536</v>
+        <v>1.004187027070448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039390614678281</v>
+        <v>1.040143879500977</v>
       </c>
       <c r="J13">
-        <v>1.002954178269475</v>
+        <v>1.004363658712638</v>
       </c>
       <c r="K13">
-        <v>1.01677536862111</v>
+        <v>1.018238000147081</v>
       </c>
       <c r="L13">
-        <v>0.9986672561134675</v>
+        <v>1.000158805800148</v>
       </c>
       <c r="M13">
-        <v>1.018572017165346</v>
+        <v>1.019190681569307</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.024378741620622</v>
+        <v>1.024867801110351</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022999643854701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.02404940844493</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017228390625882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.973925274083185</v>
+        <v>0.9751897354271148</v>
       </c>
       <c r="D14">
-        <v>1.00306376316763</v>
+        <v>1.004354433095135</v>
       </c>
       <c r="E14">
-        <v>0.9849638367848885</v>
+        <v>0.9862528155997801</v>
       </c>
       <c r="F14">
-        <v>1.005255170255827</v>
+        <v>1.005793679412466</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039994016661624</v>
+        <v>1.040646246859778</v>
       </c>
       <c r="J14">
-        <v>1.004461784331733</v>
+        <v>1.005669545036459</v>
       </c>
       <c r="K14">
-        <v>1.0179450251171</v>
+        <v>1.01921155748625</v>
       </c>
       <c r="L14">
-        <v>1.000192344719243</v>
+        <v>1.001456041415764</v>
       </c>
       <c r="M14">
-        <v>1.020095497356255</v>
+        <v>1.020623982934388</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.025758290078308</v>
+        <v>1.026176005281906</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.02382810245434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.024739336010049</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.0175221621297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9747980328988031</v>
+        <v>0.975983118519554</v>
       </c>
       <c r="D15">
-        <v>1.003662969676211</v>
+        <v>1.004875618368416</v>
       </c>
       <c r="E15">
-        <v>0.9857075791614561</v>
+        <v>0.9869147862690013</v>
       </c>
       <c r="F15">
-        <v>1.005893050129766</v>
+        <v>1.006397495289931</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040251641111679</v>
+        <v>1.040864517325556</v>
       </c>
       <c r="J15">
-        <v>1.005100477300377</v>
+        <v>1.006232950299965</v>
       </c>
       <c r="K15">
-        <v>1.018444591316275</v>
+        <v>1.019634749848104</v>
       </c>
       <c r="L15">
-        <v>1.000830700056508</v>
+        <v>1.002014436104587</v>
       </c>
       <c r="M15">
-        <v>1.020633366531595</v>
+        <v>1.021128501514592</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.026221322480892</v>
+        <v>1.026612667022878</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024187282829521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025045079180686</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017637450478008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9787838782153403</v>
+        <v>0.9796910085584688</v>
       </c>
       <c r="D16">
-        <v>1.006325931954352</v>
+        <v>1.007245394936216</v>
       </c>
       <c r="E16">
-        <v>0.9889245294903003</v>
+        <v>0.9898798527159567</v>
       </c>
       <c r="F16">
-        <v>1.008251304206857</v>
+        <v>1.008637605757518</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041331470506135</v>
+        <v>1.041796478764091</v>
       </c>
       <c r="J16">
-        <v>1.007785726418401</v>
+        <v>1.008654779189663</v>
       </c>
       <c r="K16">
-        <v>1.020545556479853</v>
+        <v>1.02144875521415</v>
       </c>
       <c r="L16">
-        <v>1.00345940104684</v>
+        <v>1.004397042620821</v>
       </c>
       <c r="M16">
-        <v>1.022436915153142</v>
+        <v>1.022816412585242</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.02760773562815</v>
+        <v>1.027907691513052</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.02567598215279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026331162784468</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018062700771083</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9808610683453302</v>
+        <v>0.9816616208135039</v>
       </c>
       <c r="D17">
-        <v>1.00768377383334</v>
+        <v>1.008479335154903</v>
       </c>
       <c r="E17">
-        <v>0.9905211790849608</v>
+        <v>0.9913997144111339</v>
       </c>
       <c r="F17">
-        <v>1.009183847200599</v>
+        <v>1.009525324880621</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041848102184523</v>
+        <v>1.042250612009675</v>
       </c>
       <c r="J17">
-        <v>1.009075128527435</v>
+        <v>1.0098432249635</v>
       </c>
       <c r="K17">
-        <v>1.021558406739971</v>
+        <v>1.022340306589178</v>
       </c>
       <c r="L17">
-        <v>1.004697472963719</v>
+        <v>1.005560237096277</v>
       </c>
       <c r="M17">
-        <v>1.023032743908553</v>
+        <v>1.023368376792007</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.027948345790124</v>
+        <v>1.028213657908824</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026394739612889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.02696439433108</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018237873254738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9813941563696571</v>
+        <v>0.9822414425204283</v>
       </c>
       <c r="D18">
-        <v>1.007968268982868</v>
+        <v>1.008788649221196</v>
       </c>
       <c r="E18">
-        <v>0.9907705594061254</v>
+        <v>0.9917349180366711</v>
       </c>
       <c r="F18">
-        <v>1.008780876553617</v>
+        <v>1.009143513418616</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041891625945035</v>
+        <v>1.042306783502526</v>
       </c>
       <c r="J18">
-        <v>1.009178977872636</v>
+        <v>1.009992551316849</v>
       </c>
       <c r="K18">
-        <v>1.021650862768266</v>
+        <v>1.022457384157248</v>
       </c>
       <c r="L18">
-        <v>1.004750529748982</v>
+        <v>1.005697859139601</v>
       </c>
       <c r="M18">
-        <v>1.022449742658467</v>
+        <v>1.022806262567419</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027246951417531</v>
+        <v>1.027528834330634</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026448319157552</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027034248091583</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018189644011835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9804987881002598</v>
+        <v>0.9815344994664074</v>
       </c>
       <c r="D19">
-        <v>1.007271686794776</v>
+        <v>1.008255321936409</v>
       </c>
       <c r="E19">
-        <v>0.9897830397712425</v>
+        <v>0.9909802945197757</v>
       </c>
       <c r="F19">
-        <v>1.007056375567452</v>
+        <v>1.007502000959936</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041504655550083</v>
+        <v>1.042002451486532</v>
       </c>
       <c r="J19">
-        <v>1.008180255466491</v>
+        <v>1.009174904304509</v>
       </c>
       <c r="K19">
-        <v>1.02090219449309</v>
+        <v>1.021869275864002</v>
       </c>
       <c r="L19">
-        <v>1.00371498844622</v>
+        <v>1.004891167164982</v>
       </c>
       <c r="M19">
-        <v>1.020690512341206</v>
+        <v>1.021128628922437</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.025525626767142</v>
+        <v>1.025872140525838</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025925458619711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026625542824677</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017943020017328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.975535459349802</v>
+        <v>0.9771776846655408</v>
       </c>
       <c r="D20">
-        <v>1.003764929878721</v>
+        <v>1.005314914209402</v>
       </c>
       <c r="E20">
-        <v>0.9852616264392295</v>
+        <v>0.9871283272323075</v>
       </c>
       <c r="F20">
-        <v>1.001717157939163</v>
+        <v>1.00243103291554</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039884035895266</v>
+        <v>1.040668093382138</v>
       </c>
       <c r="J20">
-        <v>1.004043148070328</v>
+        <v>1.005617628055069</v>
       </c>
       <c r="K20">
-        <v>1.017741899019377</v>
+        <v>1.019264946658266</v>
       </c>
       <c r="L20">
-        <v>0.999568679439057</v>
+        <v>1.001401349563108</v>
       </c>
       <c r="M20">
-        <v>1.015729880247809</v>
+        <v>1.016431269810112</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.021063036859977</v>
+        <v>1.021618126241855</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02369495691915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02478855764541</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017124922329696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9672744477456552</v>
+        <v>0.9696183366962988</v>
       </c>
       <c r="D21">
-        <v>0.9981828250093907</v>
+        <v>1.000432769480983</v>
       </c>
       <c r="E21">
-        <v>0.9784050505095845</v>
+        <v>0.9809555763531522</v>
       </c>
       <c r="F21">
-        <v>0.9962136278336982</v>
+        <v>0.9972349369666648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037549472806951</v>
+        <v>1.038686180795481</v>
       </c>
       <c r="J21">
-        <v>0.9982071224914397</v>
+        <v>1.000443608209374</v>
       </c>
       <c r="K21">
-        <v>1.013198706304014</v>
+        <v>1.015405947548083</v>
       </c>
       <c r="L21">
-        <v>0.9938074300755679</v>
+        <v>0.9963069624602915</v>
       </c>
       <c r="M21">
-        <v>1.011267091025161</v>
+        <v>1.012268884353523</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.017489158572608</v>
+        <v>1.018282036763317</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.020485968501896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022063705495204</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01614951977828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9620069293864361</v>
+        <v>0.9648059110414912</v>
       </c>
       <c r="D22">
-        <v>0.9946304111679961</v>
+        <v>0.9973299560892972</v>
       </c>
       <c r="E22">
-        <v>0.9740546078517894</v>
+        <v>0.9770450354097148</v>
       </c>
       <c r="F22">
-        <v>0.9928472790032826</v>
+        <v>0.9940680625947202</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036052205927232</v>
+        <v>1.037414984960062</v>
       </c>
       <c r="J22">
-        <v>0.9945102361457203</v>
+        <v>0.9971724762076638</v>
       </c>
       <c r="K22">
-        <v>1.010308996467957</v>
+        <v>1.012954493289177</v>
       </c>
       <c r="L22">
-        <v>0.9901581857856184</v>
+        <v>0.9930853750481138</v>
       </c>
       <c r="M22">
-        <v>1.008561776983385</v>
+        <v>1.009757955412525</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.015348009092692</v>
+        <v>1.016294738049856</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.018428982446459</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.020315336219777</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015530506603105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9647876730149479</v>
+        <v>0.9673496198352309</v>
       </c>
       <c r="D23">
-        <v>0.9964975330508202</v>
+        <v>0.9989620634111883</v>
       </c>
       <c r="E23">
-        <v>0.9763415366538115</v>
+        <v>0.9791050726642841</v>
       </c>
       <c r="F23">
-        <v>0.9946282288523954</v>
+        <v>0.9957450592946547</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.03683855404089</v>
+        <v>1.038083212455335</v>
       </c>
       <c r="J23">
-        <v>0.9964547105445717</v>
+        <v>0.9988956471103763</v>
       </c>
       <c r="K23">
-        <v>1.01182426673672</v>
+        <v>1.014240821139149</v>
       </c>
       <c r="L23">
-        <v>0.9920726398815414</v>
+        <v>0.9947794349582254</v>
       </c>
       <c r="M23">
-        <v>1.009991559599788</v>
+        <v>1.011086503160613</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.016479626569128</v>
+        <v>1.017346230608954</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.019490545607832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.021214069786697</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015850821509938</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9754062427135729</v>
+        <v>0.9770834154313219</v>
       </c>
       <c r="D24">
-        <v>1.003652893668938</v>
+        <v>1.00523191627617</v>
       </c>
       <c r="E24">
-        <v>0.9851073820388261</v>
+        <v>0.9870176881612024</v>
       </c>
       <c r="F24">
-        <v>1.001464439799336</v>
+        <v>1.002194089404975</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039819029845438</v>
+        <v>1.040617786712349</v>
       </c>
       <c r="J24">
-        <v>1.003885019723346</v>
+        <v>1.005493080792447</v>
       </c>
       <c r="K24">
-        <v>1.017616162646751</v>
+        <v>1.019167772363565</v>
       </c>
       <c r="L24">
-        <v>0.9994011756227823</v>
+        <v>1.001276689064862</v>
       </c>
       <c r="M24">
-        <v>1.015465886948207</v>
+        <v>1.016182783622628</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.020812326426546</v>
+        <v>1.021379717909494</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.023578192179647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.024689330434795</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017079184021236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9870249118315213</v>
+        <v>0.9877827315995694</v>
       </c>
       <c r="D25">
-        <v>1.011502535713862</v>
+        <v>1.012143261715749</v>
       </c>
       <c r="E25">
-        <v>0.9947308094002476</v>
+        <v>0.9957507090617694</v>
       </c>
       <c r="F25">
-        <v>1.00902919254079</v>
+        <v>1.009358100399222</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043012862902301</v>
+        <v>1.043337591344448</v>
       </c>
       <c r="J25">
-        <v>1.011996970921394</v>
+        <v>1.012728368819689</v>
       </c>
       <c r="K25">
-        <v>1.023924875766039</v>
+        <v>1.024555949123561</v>
       </c>
       <c r="L25">
-        <v>1.00741147721417</v>
+        <v>1.008415349908223</v>
       </c>
       <c r="M25">
-        <v>1.021488940461268</v>
+        <v>1.021812860314073</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025579287624494</v>
+        <v>1.025835653876299</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028035986392556</v>
+        <v>1.028495884586735</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018408955528506</v>
       </c>
     </row>
   </sheetData>
